--- a/GarrettNelson_Budget_Overview_Project.xlsx
+++ b/GarrettNelson_Budget_Overview_Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrettnelson/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FC70C36-510D-834A-BC85-CA7C026FAEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1EB133-7787-8D49-8293-7785542F5652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16580" xr2:uid="{53AB814F-7C61-1649-9B7A-6F9BD7E74F0A}"/>
   </bookViews>
@@ -23,23 +23,6 @@
     <sheet name="Risk Analysis" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Budget_Variance_Analysis!$A$3:$A$14</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Budget_Variance_Analysis!$D$2</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Budget_Variance_Analysis!$E$3:$E$14</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Budget_Variance_Analysis!$D$2</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Budget_Variance_Analysis!$D$3:$D$14</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Budget_Variance_Analysis!$E$3:$E$14</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Budget_Variance_Analysis!$D$2</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Budget_Variance_Analysis!$D$3:$D$14</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Budget_Variance_Analysis!$E$3:$E$14</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Budget_Variance_Analysis!$D$3:$D$14</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Budget_Variance_Analysis!$E$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Budget_Variance_Analysis!$F$3:$F$14</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Budget_Variance_Analysis!$D$2</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Budget_Variance_Analysis!$D$3:$D$14</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Budget_Variance_Analysis!$E$3:$E$14</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Budget_Variance_Analysis!$D$2</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Budget_Variance_Analysis!$D$3:$D$14</definedName>
     <definedName name="ExternalData_1" localSheetId="4" hidden="1">Budget_Variance_Analysis!$A$2:$E$14</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">Data_Source_SQL_Export!$A$2:$D$74</definedName>
     <definedName name="ExternalData_1" localSheetId="6" hidden="1">MoM_Analysis!$A$2:$C$26</definedName>
@@ -50,7 +33,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId9"/>
+    <pivotCache cacheId="8" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -629,9 +612,6 @@
     <t>Recommendations</t>
   </si>
   <si>
-    <t>• Implement Tighter Cost Controls in Engineering by introducing monthly budget checkpoints and variance monitoring</t>
-  </si>
-  <si>
     <t>• Standardize budgeting and forecasting processes through a rolling forecast model (monthly or quarterly updates)</t>
   </si>
   <si>
@@ -652,6 +632,9 @@
   <si>
     <t>Department Volatility Analysis</t>
   </si>
+  <si>
+    <t>• Implement tighter cost controls in Engineering by introducing monthly budget checkpoints and variance monitoring</t>
+  </si>
 </sst>
 </file>
 
@@ -661,9 +644,9 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="mmmm"/>
-    <numFmt numFmtId="171" formatCode="mmm"/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="mmmm"/>
+    <numFmt numFmtId="167" formatCode="mmm"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -935,7 +918,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -989,130 +972,98 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="23" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="23" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="23" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="23" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="23" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="23" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="18" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1132,79 +1083,107 @@
     <xf numFmtId="44" fontId="13" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="18" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="23" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="23" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="23" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="23" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="23" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="44" fontId="23" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="44" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1214,10 +1193,25 @@
   </cellStyles>
   <dxfs count="27">
     <dxf>
-      <numFmt numFmtId="171" formatCode="mmm"/>
+      <numFmt numFmtId="168" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="mmmm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="mmm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1232,16 +1226,15 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="173" formatCode="0.0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="mmm"/>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="mmmm"/>
+      <font>
+        <sz val="18"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -1272,20 +1265,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -8023,8 +8002,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>210658</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="month_date">
@@ -8047,7 +8026,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8986,7 +8965,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{78ED1094-797C-E94C-A426-96E58ECF7150}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{78ED1094-797C-E94C-A426-96E58ECF7150}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -9149,7 +9128,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F0D28B87-0964-6A4B-9FFC-19D916C6F7D3}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F0D28B87-0964-6A4B-9FFC-19D916C6F7D3}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A3:I18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -9650,25 +9629,25 @@
     <dataField name="Sum of amount" fld="3" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="11">
-    <format dxfId="10">
+    <format dxfId="23">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="21">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="20">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="19">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="18">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="13">
@@ -9689,20 +9668,20 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="13">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="13">
@@ -10204,9 +10183,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BE5CCC7E-EA08-1341-BC1E-0259C7E1979B}" name="budget_export_long" displayName="budget_export_long" ref="A2:D74" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A2:D74" xr:uid="{BE5CCC7E-EA08-1341-BC1E-0259C7E1979B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{32FC7C77-16D6-A047-A17A-DA4FFE87E889}" uniqueName="1" name="Month Date" queryTableFieldId="1" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{36A605D8-240E-A24A-9184-F0E377FE195F}" uniqueName="2" name="Department" queryTableFieldId="2" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{EA059318-F445-854E-B488-97D407354AB0}" uniqueName="3" name="Category Name" queryTableFieldId="3" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{32FC7C77-16D6-A047-A17A-DA4FFE87E889}" uniqueName="1" name="Month Date" queryTableFieldId="1" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{36A605D8-240E-A24A-9184-F0E377FE195F}" uniqueName="2" name="Department" queryTableFieldId="2" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{EA059318-F445-854E-B488-97D407354AB0}" uniqueName="3" name="Category Name" queryTableFieldId="3" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{3152B331-9C23-FB49-A5BC-BCA378FB04EA}" uniqueName="4" name="Budget Amount" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10217,9 +10196,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F97FBB7D-62F7-1545-9FF6-B76C595744C4}" name="budget_export_long6" displayName="budget_export_long6" ref="F2:I75" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="F2:I75" xr:uid="{F97FBB7D-62F7-1545-9FF6-B76C595744C4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B79C429F-C440-D04F-A5E9-5B77A77A223B}" uniqueName="1" name="Month Date" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{B2EDBD08-7E32-A743-B504-682D3BA745F8}" uniqueName="2" name="Department" queryTableFieldId="2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{594B69EC-B21B-5247-BAB5-4BEEB0D469E9}" uniqueName="3" name="Category Name" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{B79C429F-C440-D04F-A5E9-5B77A77A223B}" uniqueName="1" name="Month Date" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{B2EDBD08-7E32-A743-B504-682D3BA745F8}" uniqueName="2" name="Department" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{594B69EC-B21B-5247-BAB5-4BEEB0D469E9}" uniqueName="3" name="Category Name" queryTableFieldId="3" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{B5BC0E03-760E-B14C-9664-ED4B6AD3E084}" uniqueName="4" name="Actual Amount" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10230,12 +10209,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{547A2D02-67F3-E04E-A987-E9C762441FE7}" name="budget_vs_actual" displayName="budget_vs_actual" ref="A2:F14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A2:F14" xr:uid="{547A2D02-67F3-E04E-A987-E9C762441FE7}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{711E03EE-5190-1F45-9404-81FB5DECCEF6}" uniqueName="1" name="month_date" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{711E03EE-5190-1F45-9404-81FB5DECCEF6}" uniqueName="1" name="month_date" queryTableFieldId="1" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{95A77EC6-52A7-A645-9A32-6904D6A13171}" uniqueName="2" name="budget_spend" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{233CA970-9FAE-EB47-945A-83E054B0DD00}" uniqueName="3" name="actual_spend" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{B2938775-DF5F-F24F-9C04-45289FA5397A}" uniqueName="4" name="Variance ($)" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{7347371F-2820-4442-A48C-91A26D29A09A}" uniqueName="5" name="variance_percent" queryTableFieldId="5"/>
-    <tableColumn id="7" xr3:uid="{48301FB9-0123-5F4A-B7BF-EB24B80C4AFC}" uniqueName="7" name="Variance (%)" queryTableFieldId="7" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{48301FB9-0123-5F4A-B7BF-EB24B80C4AFC}" uniqueName="7" name="Variance (%)" queryTableFieldId="7" dataDxfId="5">
       <calculatedColumnFormula>E3/100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10247,7 +10226,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4EBE557F-18B2-5749-AE0C-82C9E820B024}" name="budget_trend_with_rolling" displayName="budget_trend_with_rolling" ref="A2:C26" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A2:C26" xr:uid="{4EBE557F-18B2-5749-AE0C-82C9E820B024}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{85AFCECE-F0DE-C041-A0A6-0DABDAB7655D}" uniqueName="1" name="Month, 2023" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{85AFCECE-F0DE-C041-A0A6-0DABDAB7655D}" uniqueName="1" name="Month, 2023" queryTableFieldId="1" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{FB23B1DC-721D-AF43-96C9-886630C9D82C}" uniqueName="2" name="Total Spend" queryTableFieldId="2" dataCellStyle="Currency"/>
     <tableColumn id="3" xr3:uid="{EFF135B0-263B-4D4B-8F0D-2E24A2A605E0}" uniqueName="3" name="3-Month Rolling Average" queryTableFieldId="3" dataCellStyle="Currency"/>
   </tableColumns>
@@ -10259,7 +10238,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8B4005E4-D937-B048-9029-B88FDBFB477E}" name="budget_mom_growth" displayName="budget_mom_growth" ref="A2:C26" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A2:C26" xr:uid="{8B4005E4-D937-B048-9029-B88FDBFB477E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2B250C9D-BEB7-5E42-9A80-2E83A949C768}" uniqueName="1" name="Month" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{2B250C9D-BEB7-5E42-9A80-2E83A949C768}" uniqueName="1" name="Month" queryTableFieldId="1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{F3DD853B-B8F5-8F4F-B540-8E2F6026131D}" uniqueName="2" name="Total Spend" queryTableFieldId="2" dataCellStyle="Currency"/>
     <tableColumn id="3" xr3:uid="{5AC0AB4E-E9D4-E943-B9DB-C928E69FB37C}" uniqueName="3" name="MoM Percent Change" queryTableFieldId="3"/>
   </tableColumns>
@@ -10271,8 +10250,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DA97031C-18C5-934A-9A71-372CC1F4268F}" name="department_volatility" displayName="department_volatility" ref="A2:B8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A2:B8" xr:uid="{DA97031C-18C5-934A-9A71-372CC1F4268F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{FB5F8C4F-9EEA-3443-A51C-8D352F22E747}" uniqueName="1" name="department" queryTableFieldId="1" dataDxfId="7" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{554C2A5B-4EAC-D44B-B304-E254ED186C70}" uniqueName="2" name="spend_volatility" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{FB5F8C4F-9EEA-3443-A51C-8D352F22E747}" uniqueName="1" name="department" queryTableFieldId="1" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{554C2A5B-4EAC-D44B-B304-E254ED186C70}" uniqueName="2" name="spend_volatility" queryTableFieldId="2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10578,8 +10557,8 @@
   <dimension ref="A1:V126"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X101" sqref="X101"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z108" sqref="Z108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10591,241 +10570,241 @@
     <col min="11" max="11" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="73" customFormat="1" ht="30">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:22" s="47" customFormat="1" ht="30">
+      <c r="A1" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72"/>
-    </row>
-    <row r="2" spans="1:22" s="32" customFormat="1" ht="23">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
+    </row>
+    <row r="2" spans="1:22" s="29" customFormat="1" ht="23">
+      <c r="A2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-    </row>
-    <row r="3" spans="1:22" s="32" customFormat="1" ht="23">
-      <c r="A3" s="41" t="s">
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+    </row>
+    <row r="3" spans="1:22" s="29" customFormat="1" ht="23">
+      <c r="A3" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-    </row>
-    <row r="4" spans="1:22" s="32" customFormat="1" ht="24" thickBot="1">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-    </row>
-    <row r="5" spans="1:22" s="32" customFormat="1" ht="28" customHeight="1">
-      <c r="A5" s="38"/>
-      <c r="B5" s="74" t="s">
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+    </row>
+    <row r="4" spans="1:22" s="29" customFormat="1" ht="24" thickBot="1">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+    </row>
+    <row r="5" spans="1:22" s="29" customFormat="1" ht="28" customHeight="1">
+      <c r="A5" s="34"/>
+      <c r="B5" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="76"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="91"/>
     </row>
     <row r="6" spans="1:22" ht="17" thickBot="1">
-      <c r="B6" s="77"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="79"/>
-    </row>
-    <row r="7" spans="1:22" s="51" customFormat="1" ht="18" customHeight="1">
-      <c r="B7" s="97"/>
-      <c r="C7" s="53" t="s">
+      <c r="B6" s="92"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="93"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="94"/>
+    </row>
+    <row r="7" spans="1:22" s="37" customFormat="1" ht="18" customHeight="1">
+      <c r="B7" s="59"/>
+      <c r="C7" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="56" t="s">
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="59" t="s">
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="62" t="s">
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="99"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="61"/>
     </row>
     <row r="8" spans="1:22" ht="28">
-      <c r="B8" s="86"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="89"/>
+      <c r="G8" s="51"/>
       <c r="H8" s="22"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="26"/>
-      <c r="L8" s="89"/>
+      <c r="L8" s="51"/>
       <c r="M8" s="19"/>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
       <c r="P8" s="21"/>
-      <c r="Q8" s="89"/>
+      <c r="Q8" s="51"/>
       <c r="R8" s="25"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
       <c r="U8" s="26"/>
-      <c r="V8" s="91"/>
+      <c r="V8" s="53"/>
     </row>
     <row r="9" spans="1:22" ht="34" thickBot="1">
-      <c r="B9" s="86"/>
-      <c r="C9" s="48">
+      <c r="B9" s="48"/>
+      <c r="C9" s="117">
         <f>GETPIVOTDATA("amount",Monthly_Department_Spend!$A$3)</f>
         <v>1762200</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="45">
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="111">
         <f>AVERAGE(Monthly_Department_Spend!I6:I17)</f>
         <v>146850</v>
       </c>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="42">
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="98">
         <f>MAX(Monthly_Department_Spend!I6:I17)</f>
         <v>155000</v>
       </c>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="27">
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="104">
         <f>MAX(Department_Spend_Mix!B4:B9)</f>
         <v>0.76052661445919878</v>
       </c>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="91"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="106"/>
+      <c r="V9" s="53"/>
     </row>
     <row r="10" spans="1:22" ht="17" customHeight="1">
-      <c r="B10" s="86"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="91"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="53"/>
     </row>
     <row r="11" spans="1:22" ht="16" customHeight="1" thickBot="1">
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
-      <c r="T11" s="94"/>
-      <c r="U11" s="94"/>
-      <c r="V11" s="96"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="58"/>
     </row>
     <row r="12" spans="1:22" ht="16" customHeight="1">
       <c r="C12" s="23"/>
@@ -10917,846 +10896,846 @@
       <c r="V16" s="85"/>
     </row>
     <row r="17" spans="2:22" ht="16" customHeight="1">
-      <c r="B17" s="86"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="89"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="91"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="53"/>
     </row>
     <row r="18" spans="2:22" ht="16" customHeight="1">
-      <c r="B18" s="86"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="91"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="53"/>
     </row>
     <row r="19" spans="2:22" ht="16" customHeight="1">
-      <c r="B19" s="86"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="89"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="91"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="53"/>
     </row>
     <row r="20" spans="2:22" ht="16" customHeight="1">
-      <c r="B20" s="86"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="89"/>
-      <c r="S20" s="89"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="89"/>
-      <c r="V20" s="91"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="53"/>
     </row>
     <row r="21" spans="2:22" ht="16" customHeight="1">
-      <c r="B21" s="86"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="89"/>
-      <c r="R21" s="89"/>
-      <c r="S21" s="89"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="89"/>
-      <c r="V21" s="91"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="53"/>
     </row>
     <row r="22" spans="2:22" ht="16" customHeight="1">
-      <c r="B22" s="86"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="89"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="89"/>
-      <c r="V22" s="91"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="53"/>
     </row>
     <row r="23" spans="2:22" ht="16" customHeight="1">
-      <c r="B23" s="86"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="89"/>
-      <c r="Q23" s="89"/>
-      <c r="R23" s="89"/>
-      <c r="S23" s="89"/>
-      <c r="T23" s="89"/>
-      <c r="U23" s="89"/>
-      <c r="V23" s="91"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="53"/>
     </row>
     <row r="24" spans="2:22" ht="17" customHeight="1">
-      <c r="B24" s="86"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="89"/>
-      <c r="Q24" s="89"/>
-      <c r="R24" s="89"/>
-      <c r="S24" s="89"/>
-      <c r="T24" s="89"/>
-      <c r="U24" s="89"/>
-      <c r="V24" s="91"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="53"/>
     </row>
     <row r="25" spans="2:22" ht="16" customHeight="1">
-      <c r="B25" s="86"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="89"/>
-      <c r="R25" s="89"/>
-      <c r="S25" s="89"/>
-      <c r="T25" s="89"/>
-      <c r="U25" s="89"/>
-      <c r="V25" s="91"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="53"/>
     </row>
     <row r="26" spans="2:22" ht="16" customHeight="1">
-      <c r="B26" s="86"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="89"/>
-      <c r="P26" s="89"/>
-      <c r="Q26" s="89"/>
-      <c r="R26" s="89"/>
-      <c r="S26" s="89"/>
-      <c r="T26" s="89"/>
-      <c r="U26" s="89"/>
-      <c r="V26" s="91"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="53"/>
     </row>
     <row r="27" spans="2:22" ht="16" customHeight="1">
-      <c r="B27" s="86"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89"/>
-      <c r="O27" s="89"/>
-      <c r="P27" s="89"/>
-      <c r="Q27" s="89"/>
-      <c r="R27" s="89"/>
-      <c r="S27" s="89"/>
-      <c r="T27" s="89"/>
-      <c r="U27" s="89"/>
-      <c r="V27" s="91"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="53"/>
     </row>
     <row r="28" spans="2:22" ht="16" customHeight="1">
-      <c r="B28" s="86"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="89"/>
-      <c r="Q28" s="89"/>
-      <c r="R28" s="89"/>
-      <c r="S28" s="89"/>
-      <c r="T28" s="89"/>
-      <c r="U28" s="89"/>
-      <c r="V28" s="91"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="53"/>
     </row>
     <row r="29" spans="2:22" ht="16" customHeight="1">
-      <c r="B29" s="86"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="89"/>
-      <c r="P29" s="89"/>
-      <c r="Q29" s="89"/>
-      <c r="R29" s="89"/>
-      <c r="S29" s="89"/>
-      <c r="T29" s="89"/>
-      <c r="U29" s="89"/>
-      <c r="V29" s="91"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="53"/>
     </row>
     <row r="30" spans="2:22" ht="16" customHeight="1">
-      <c r="B30" s="86"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="89"/>
-      <c r="Q30" s="89"/>
-      <c r="R30" s="89"/>
-      <c r="S30" s="89"/>
-      <c r="T30" s="89"/>
-      <c r="U30" s="89"/>
-      <c r="V30" s="91"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="53"/>
     </row>
     <row r="31" spans="2:22" ht="16" customHeight="1">
-      <c r="B31" s="86"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="89"/>
-      <c r="R31" s="89"/>
-      <c r="S31" s="89"/>
-      <c r="T31" s="89"/>
-      <c r="U31" s="89"/>
-      <c r="V31" s="91"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="53"/>
     </row>
     <row r="32" spans="2:22" ht="16" customHeight="1">
-      <c r="B32" s="86"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="89"/>
-      <c r="P32" s="89"/>
-      <c r="Q32" s="89"/>
-      <c r="R32" s="89"/>
-      <c r="S32" s="89"/>
-      <c r="T32" s="89"/>
-      <c r="U32" s="89"/>
-      <c r="V32" s="91"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="53"/>
     </row>
     <row r="33" spans="2:22" ht="16" customHeight="1">
-      <c r="B33" s="86"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89"/>
-      <c r="O33" s="89"/>
-      <c r="P33" s="89"/>
-      <c r="Q33" s="89"/>
-      <c r="R33" s="89"/>
-      <c r="S33" s="89"/>
-      <c r="T33" s="89"/>
-      <c r="U33" s="89"/>
-      <c r="V33" s="91"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="53"/>
     </row>
     <row r="34" spans="2:22" ht="16" customHeight="1">
-      <c r="B34" s="86"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="89"/>
-      <c r="O34" s="89"/>
-      <c r="P34" s="89"/>
-      <c r="Q34" s="89"/>
-      <c r="R34" s="89"/>
-      <c r="S34" s="89"/>
-      <c r="T34" s="89"/>
-      <c r="U34" s="89"/>
-      <c r="V34" s="91"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="53"/>
     </row>
     <row r="35" spans="2:22" ht="16" customHeight="1">
-      <c r="B35" s="86"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="89"/>
-      <c r="O35" s="89"/>
-      <c r="P35" s="89"/>
-      <c r="Q35" s="89"/>
-      <c r="R35" s="89"/>
-      <c r="S35" s="89"/>
-      <c r="T35" s="89"/>
-      <c r="U35" s="89"/>
-      <c r="V35" s="91"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="53"/>
     </row>
     <row r="36" spans="2:22" ht="16" customHeight="1">
-      <c r="B36" s="86"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="89"/>
-      <c r="O36" s="89"/>
-      <c r="P36" s="89"/>
-      <c r="Q36" s="89"/>
-      <c r="R36" s="89"/>
-      <c r="S36" s="89"/>
-      <c r="T36" s="89"/>
-      <c r="U36" s="89"/>
-      <c r="V36" s="91"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="53"/>
     </row>
     <row r="37" spans="2:22" ht="16" customHeight="1">
-      <c r="B37" s="86"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="89"/>
-      <c r="O37" s="89"/>
-      <c r="P37" s="89"/>
-      <c r="Q37" s="89"/>
-      <c r="R37" s="89"/>
-      <c r="S37" s="89"/>
-      <c r="T37" s="89"/>
-      <c r="U37" s="89"/>
-      <c r="V37" s="91"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="51"/>
+      <c r="V37" s="53"/>
     </row>
     <row r="38" spans="2:22" ht="16" customHeight="1">
-      <c r="B38" s="86"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="89"/>
-      <c r="O38" s="89"/>
-      <c r="P38" s="89"/>
-      <c r="Q38" s="89"/>
-      <c r="R38" s="89"/>
-      <c r="S38" s="89"/>
-      <c r="T38" s="89"/>
-      <c r="U38" s="89"/>
-      <c r="V38" s="91"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="51"/>
+      <c r="T38" s="51"/>
+      <c r="U38" s="51"/>
+      <c r="V38" s="53"/>
     </row>
     <row r="39" spans="2:22" ht="16" customHeight="1">
-      <c r="B39" s="86"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="89"/>
-      <c r="O39" s="89"/>
-      <c r="P39" s="89"/>
-      <c r="Q39" s="89"/>
-      <c r="R39" s="89"/>
-      <c r="S39" s="89"/>
-      <c r="T39" s="89"/>
-      <c r="U39" s="89"/>
-      <c r="V39" s="91"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="53"/>
     </row>
     <row r="40" spans="2:22" ht="16" customHeight="1">
-      <c r="B40" s="86"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="89"/>
-      <c r="O40" s="89"/>
-      <c r="P40" s="89"/>
-      <c r="Q40" s="89"/>
-      <c r="R40" s="89"/>
-      <c r="S40" s="89"/>
-      <c r="T40" s="89"/>
-      <c r="U40" s="89"/>
-      <c r="V40" s="91"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="53"/>
     </row>
     <row r="41" spans="2:22" ht="16" customHeight="1">
-      <c r="B41" s="86"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="89"/>
-      <c r="O41" s="89"/>
-      <c r="P41" s="89"/>
-      <c r="Q41" s="89"/>
-      <c r="R41" s="89"/>
-      <c r="S41" s="89"/>
-      <c r="T41" s="89"/>
-      <c r="U41" s="89"/>
-      <c r="V41" s="91"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="51"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="51"/>
+      <c r="V41" s="53"/>
     </row>
     <row r="42" spans="2:22" ht="16" customHeight="1">
-      <c r="B42" s="86"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="89"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="89"/>
-      <c r="L42" s="89"/>
-      <c r="M42" s="89"/>
-      <c r="N42" s="89"/>
-      <c r="O42" s="89"/>
-      <c r="P42" s="89"/>
-      <c r="Q42" s="89"/>
-      <c r="R42" s="89"/>
-      <c r="S42" s="89"/>
-      <c r="T42" s="89"/>
-      <c r="U42" s="89"/>
-      <c r="V42" s="91"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="51"/>
+      <c r="S42" s="51"/>
+      <c r="T42" s="51"/>
+      <c r="U42" s="51"/>
+      <c r="V42" s="53"/>
     </row>
     <row r="43" spans="2:22" ht="16" customHeight="1">
-      <c r="B43" s="86"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="89"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="89"/>
-      <c r="M43" s="89"/>
-      <c r="N43" s="89"/>
-      <c r="O43" s="89"/>
-      <c r="P43" s="89"/>
-      <c r="Q43" s="89"/>
-      <c r="R43" s="89"/>
-      <c r="S43" s="89"/>
-      <c r="T43" s="89"/>
-      <c r="U43" s="89"/>
-      <c r="V43" s="91"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="51"/>
+      <c r="Q43" s="51"/>
+      <c r="R43" s="51"/>
+      <c r="S43" s="51"/>
+      <c r="T43" s="51"/>
+      <c r="U43" s="51"/>
+      <c r="V43" s="53"/>
     </row>
     <row r="44" spans="2:22" ht="16" customHeight="1">
-      <c r="B44" s="86"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="89"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="89"/>
-      <c r="O44" s="89"/>
-      <c r="P44" s="89"/>
-      <c r="Q44" s="89"/>
-      <c r="R44" s="89"/>
-      <c r="S44" s="89"/>
-      <c r="T44" s="89"/>
-      <c r="U44" s="89"/>
-      <c r="V44" s="91"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="51"/>
+      <c r="P44" s="51"/>
+      <c r="Q44" s="51"/>
+      <c r="R44" s="51"/>
+      <c r="S44" s="51"/>
+      <c r="T44" s="51"/>
+      <c r="U44" s="51"/>
+      <c r="V44" s="53"/>
     </row>
     <row r="45" spans="2:22" ht="11" customHeight="1">
-      <c r="B45" s="86"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="89"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="89"/>
-      <c r="O45" s="89"/>
-      <c r="P45" s="89"/>
-      <c r="Q45" s="89"/>
-      <c r="R45" s="89"/>
-      <c r="S45" s="89"/>
-      <c r="T45" s="89"/>
-      <c r="U45" s="89"/>
-      <c r="V45" s="91"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="51"/>
+      <c r="Q45" s="51"/>
+      <c r="R45" s="51"/>
+      <c r="S45" s="51"/>
+      <c r="T45" s="51"/>
+      <c r="U45" s="51"/>
+      <c r="V45" s="53"/>
     </row>
     <row r="46" spans="2:22" ht="16" customHeight="1">
-      <c r="B46" s="103" t="s">
+      <c r="B46" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="104"/>
-      <c r="D46" s="104"/>
-      <c r="E46" s="104"/>
-      <c r="F46" s="104"/>
-      <c r="G46" s="104"/>
-      <c r="H46" s="104"/>
-      <c r="I46" s="104"/>
-      <c r="J46" s="104"/>
-      <c r="K46" s="104"/>
-      <c r="L46" s="104"/>
-      <c r="M46" s="104"/>
-      <c r="N46" s="104"/>
-      <c r="O46" s="104"/>
-      <c r="P46" s="104"/>
-      <c r="Q46" s="104"/>
-      <c r="R46" s="104"/>
-      <c r="S46" s="104"/>
-      <c r="T46" s="104"/>
-      <c r="U46" s="104"/>
-      <c r="V46" s="105"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="87"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="87"/>
+      <c r="M46" s="87"/>
+      <c r="N46" s="87"/>
+      <c r="O46" s="87"/>
+      <c r="P46" s="87"/>
+      <c r="Q46" s="87"/>
+      <c r="R46" s="87"/>
+      <c r="S46" s="87"/>
+      <c r="T46" s="87"/>
+      <c r="U46" s="87"/>
+      <c r="V46" s="88"/>
     </row>
     <row r="47" spans="2:22" ht="10" customHeight="1">
-      <c r="B47" s="103"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="104"/>
-      <c r="I47" s="104"/>
-      <c r="J47" s="104"/>
-      <c r="K47" s="104"/>
-      <c r="L47" s="104"/>
-      <c r="M47" s="104"/>
-      <c r="N47" s="104"/>
-      <c r="O47" s="104"/>
-      <c r="P47" s="104"/>
-      <c r="Q47" s="104"/>
-      <c r="R47" s="104"/>
-      <c r="S47" s="104"/>
-      <c r="T47" s="104"/>
-      <c r="U47" s="104"/>
-      <c r="V47" s="105"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="87"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="87"/>
+      <c r="M47" s="87"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="87"/>
+      <c r="P47" s="87"/>
+      <c r="Q47" s="87"/>
+      <c r="R47" s="87"/>
+      <c r="S47" s="87"/>
+      <c r="T47" s="87"/>
+      <c r="U47" s="87"/>
+      <c r="V47" s="88"/>
     </row>
     <row r="48" spans="2:22" ht="4" customHeight="1">
-      <c r="B48" s="106"/>
-      <c r="C48" s="107"/>
-      <c r="D48" s="108"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="108"/>
-      <c r="G48" s="108"/>
-      <c r="H48" s="108"/>
-      <c r="I48" s="108"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="89"/>
-      <c r="M48" s="89"/>
-      <c r="N48" s="89"/>
-      <c r="O48" s="89"/>
-      <c r="P48" s="89"/>
-      <c r="Q48" s="89"/>
-      <c r="R48" s="89"/>
-      <c r="S48" s="89"/>
-      <c r="T48" s="89"/>
-      <c r="U48" s="89"/>
-      <c r="V48" s="91"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="51"/>
+      <c r="S48" s="51"/>
+      <c r="T48" s="51"/>
+      <c r="U48" s="51"/>
+      <c r="V48" s="53"/>
     </row>
     <row r="49" spans="2:22" ht="25">
-      <c r="B49" s="109" t="s">
+      <c r="B49" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="107"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="108"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="108"/>
-      <c r="I49" s="108"/>
-      <c r="J49" s="89"/>
-      <c r="K49" s="89"/>
-      <c r="L49" s="89"/>
-      <c r="M49" s="89"/>
-      <c r="N49" s="89"/>
-      <c r="O49" s="89"/>
-      <c r="P49" s="89"/>
-      <c r="Q49" s="89"/>
-      <c r="R49" s="89"/>
-      <c r="S49" s="89"/>
-      <c r="T49" s="89"/>
-      <c r="U49" s="89"/>
-      <c r="V49" s="91"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="51"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="51"/>
+      <c r="P49" s="51"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="51"/>
+      <c r="S49" s="51"/>
+      <c r="T49" s="51"/>
+      <c r="U49" s="51"/>
+      <c r="V49" s="53"/>
     </row>
     <row r="50" spans="2:22" ht="25">
-      <c r="B50" s="110" t="s">
+      <c r="B50" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="107"/>
-      <c r="D50" s="108"/>
-      <c r="E50" s="108"/>
-      <c r="F50" s="108"/>
-      <c r="G50" s="108"/>
-      <c r="H50" s="108"/>
-      <c r="I50" s="108"/>
-      <c r="J50" s="89"/>
-      <c r="K50" s="89"/>
-      <c r="L50" s="89"/>
-      <c r="M50" s="89"/>
-      <c r="N50" s="89"/>
-      <c r="O50" s="89"/>
-      <c r="P50" s="89"/>
-      <c r="Q50" s="89"/>
-      <c r="R50" s="89"/>
-      <c r="S50" s="89"/>
-      <c r="T50" s="89"/>
-      <c r="U50" s="89"/>
-      <c r="V50" s="91"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="51"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="51"/>
+      <c r="P50" s="51"/>
+      <c r="Q50" s="51"/>
+      <c r="R50" s="51"/>
+      <c r="S50" s="51"/>
+      <c r="T50" s="51"/>
+      <c r="U50" s="51"/>
+      <c r="V50" s="53"/>
     </row>
     <row r="51" spans="2:22" ht="25">
-      <c r="B51" s="110" t="s">
+      <c r="B51" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="107"/>
-      <c r="D51" s="108"/>
-      <c r="E51" s="108"/>
-      <c r="F51" s="108"/>
-      <c r="G51" s="108"/>
-      <c r="H51" s="108"/>
-      <c r="I51" s="108"/>
-      <c r="J51" s="89"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="89"/>
-      <c r="M51" s="89"/>
-      <c r="N51" s="89"/>
-      <c r="O51" s="89"/>
-      <c r="P51" s="89"/>
-      <c r="Q51" s="89"/>
-      <c r="R51" s="89"/>
-      <c r="S51" s="89"/>
-      <c r="T51" s="89"/>
-      <c r="U51" s="89"/>
-      <c r="V51" s="91"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="51"/>
+      <c r="S51" s="51"/>
+      <c r="T51" s="51"/>
+      <c r="U51" s="51"/>
+      <c r="V51" s="53"/>
     </row>
     <row r="52" spans="2:22" ht="17" customHeight="1" thickBot="1">
-      <c r="B52" s="111"/>
-      <c r="C52" s="112"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="94"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="94"/>
-      <c r="K52" s="94"/>
-      <c r="L52" s="94"/>
-      <c r="M52" s="94"/>
-      <c r="N52" s="94"/>
-      <c r="O52" s="94"/>
-      <c r="P52" s="94"/>
-      <c r="Q52" s="94"/>
-      <c r="R52" s="94"/>
-      <c r="S52" s="94"/>
-      <c r="T52" s="94"/>
-      <c r="U52" s="94"/>
-      <c r="V52" s="96"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="56"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="56"/>
+      <c r="S52" s="56"/>
+      <c r="T52" s="56"/>
+      <c r="U52" s="56"/>
+      <c r="V52" s="58"/>
     </row>
     <row r="53" spans="2:22">
-      <c r="B53" s="52"/>
+      <c r="B53" s="38"/>
     </row>
     <row r="54" spans="2:22" ht="17" thickBot="1">
-      <c r="B54" s="52"/>
+      <c r="B54" s="38"/>
     </row>
     <row r="55" spans="2:22">
       <c r="B55" s="80" t="s">
@@ -11830,771 +11809,771 @@
       <c r="V57" s="85"/>
     </row>
     <row r="58" spans="2:22">
-      <c r="B58" s="86"/>
-      <c r="C58" s="100"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89"/>
-      <c r="F58" s="89"/>
-      <c r="G58" s="89"/>
-      <c r="H58" s="89"/>
-      <c r="I58" s="89"/>
-      <c r="J58" s="89"/>
-      <c r="K58" s="89"/>
-      <c r="L58" s="89"/>
-      <c r="M58" s="89"/>
-      <c r="N58" s="89"/>
-      <c r="O58" s="89"/>
-      <c r="P58" s="89"/>
-      <c r="Q58" s="89"/>
-      <c r="R58" s="89"/>
-      <c r="S58" s="89"/>
-      <c r="T58" s="89"/>
-      <c r="U58" s="89"/>
-      <c r="V58" s="91"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="51"/>
+      <c r="L58" s="51"/>
+      <c r="M58" s="51"/>
+      <c r="N58" s="51"/>
+      <c r="O58" s="51"/>
+      <c r="P58" s="51"/>
+      <c r="Q58" s="51"/>
+      <c r="R58" s="51"/>
+      <c r="S58" s="51"/>
+      <c r="T58" s="51"/>
+      <c r="U58" s="51"/>
+      <c r="V58" s="53"/>
     </row>
     <row r="59" spans="2:22">
-      <c r="B59" s="86"/>
-      <c r="C59" s="100"/>
-      <c r="D59" s="89"/>
-      <c r="E59" s="89"/>
-      <c r="F59" s="89"/>
-      <c r="G59" s="89"/>
-      <c r="H59" s="89"/>
-      <c r="I59" s="89"/>
-      <c r="J59" s="89"/>
-      <c r="K59" s="89"/>
-      <c r="L59" s="89"/>
-      <c r="M59" s="89"/>
-      <c r="N59" s="89"/>
-      <c r="O59" s="89"/>
-      <c r="P59" s="89"/>
-      <c r="Q59" s="89"/>
-      <c r="R59" s="89"/>
-      <c r="S59" s="89"/>
-      <c r="T59" s="89"/>
-      <c r="U59" s="89"/>
-      <c r="V59" s="91"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="51"/>
+      <c r="L59" s="51"/>
+      <c r="M59" s="51"/>
+      <c r="N59" s="51"/>
+      <c r="O59" s="51"/>
+      <c r="P59" s="51"/>
+      <c r="Q59" s="51"/>
+      <c r="R59" s="51"/>
+      <c r="S59" s="51"/>
+      <c r="T59" s="51"/>
+      <c r="U59" s="51"/>
+      <c r="V59" s="53"/>
     </row>
     <row r="60" spans="2:22">
-      <c r="B60" s="86"/>
-      <c r="C60" s="100"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="89"/>
-      <c r="F60" s="89"/>
-      <c r="G60" s="89"/>
-      <c r="H60" s="89"/>
-      <c r="I60" s="89"/>
-      <c r="J60" s="89"/>
-      <c r="K60" s="89"/>
-      <c r="L60" s="89"/>
-      <c r="M60" s="89"/>
-      <c r="N60" s="89"/>
-      <c r="O60" s="89"/>
-      <c r="P60" s="89"/>
-      <c r="Q60" s="89"/>
-      <c r="R60" s="89"/>
-      <c r="S60" s="89"/>
-      <c r="T60" s="89"/>
-      <c r="U60" s="89"/>
-      <c r="V60" s="91"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="51"/>
+      <c r="M60" s="51"/>
+      <c r="N60" s="51"/>
+      <c r="O60" s="51"/>
+      <c r="P60" s="51"/>
+      <c r="Q60" s="51"/>
+      <c r="R60" s="51"/>
+      <c r="S60" s="51"/>
+      <c r="T60" s="51"/>
+      <c r="U60" s="51"/>
+      <c r="V60" s="53"/>
     </row>
     <row r="61" spans="2:22">
-      <c r="B61" s="86"/>
-      <c r="C61" s="100"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="89"/>
-      <c r="F61" s="89"/>
-      <c r="G61" s="89"/>
-      <c r="H61" s="89"/>
-      <c r="I61" s="89"/>
-      <c r="J61" s="89"/>
-      <c r="K61" s="89"/>
-      <c r="L61" s="89"/>
-      <c r="M61" s="89"/>
-      <c r="N61" s="89"/>
-      <c r="O61" s="89"/>
-      <c r="P61" s="89"/>
-      <c r="Q61" s="89"/>
-      <c r="R61" s="89"/>
-      <c r="S61" s="89"/>
-      <c r="T61" s="89"/>
-      <c r="U61" s="89"/>
-      <c r="V61" s="91"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="51"/>
+      <c r="M61" s="51"/>
+      <c r="N61" s="51"/>
+      <c r="O61" s="51"/>
+      <c r="P61" s="51"/>
+      <c r="Q61" s="51"/>
+      <c r="R61" s="51"/>
+      <c r="S61" s="51"/>
+      <c r="T61" s="51"/>
+      <c r="U61" s="51"/>
+      <c r="V61" s="53"/>
     </row>
     <row r="62" spans="2:22">
-      <c r="B62" s="86"/>
-      <c r="C62" s="100"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="89"/>
-      <c r="F62" s="89"/>
-      <c r="G62" s="89"/>
-      <c r="H62" s="89"/>
-      <c r="I62" s="89"/>
-      <c r="J62" s="89"/>
-      <c r="K62" s="89"/>
-      <c r="L62" s="89"/>
-      <c r="M62" s="89"/>
-      <c r="N62" s="89"/>
-      <c r="O62" s="89"/>
-      <c r="P62" s="89"/>
-      <c r="Q62" s="89"/>
-      <c r="R62" s="89"/>
-      <c r="S62" s="89"/>
-      <c r="T62" s="89"/>
-      <c r="U62" s="89"/>
-      <c r="V62" s="91"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="51"/>
+      <c r="L62" s="51"/>
+      <c r="M62" s="51"/>
+      <c r="N62" s="51"/>
+      <c r="O62" s="51"/>
+      <c r="P62" s="51"/>
+      <c r="Q62" s="51"/>
+      <c r="R62" s="51"/>
+      <c r="S62" s="51"/>
+      <c r="T62" s="51"/>
+      <c r="U62" s="51"/>
+      <c r="V62" s="53"/>
     </row>
     <row r="63" spans="2:22">
-      <c r="B63" s="86"/>
-      <c r="C63" s="100"/>
-      <c r="D63" s="89"/>
-      <c r="E63" s="89"/>
-      <c r="F63" s="89"/>
-      <c r="G63" s="89"/>
-      <c r="H63" s="89"/>
-      <c r="I63" s="89"/>
-      <c r="J63" s="89"/>
-      <c r="K63" s="89"/>
-      <c r="L63" s="89"/>
-      <c r="M63" s="89"/>
-      <c r="N63" s="89"/>
-      <c r="O63" s="89"/>
-      <c r="P63" s="89"/>
-      <c r="Q63" s="89"/>
-      <c r="R63" s="89"/>
-      <c r="S63" s="89"/>
-      <c r="T63" s="89"/>
-      <c r="U63" s="89"/>
-      <c r="V63" s="91"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="51"/>
+      <c r="M63" s="51"/>
+      <c r="N63" s="51"/>
+      <c r="O63" s="51"/>
+      <c r="P63" s="51"/>
+      <c r="Q63" s="51"/>
+      <c r="R63" s="51"/>
+      <c r="S63" s="51"/>
+      <c r="T63" s="51"/>
+      <c r="U63" s="51"/>
+      <c r="V63" s="53"/>
     </row>
     <row r="64" spans="2:22">
-      <c r="B64" s="86"/>
-      <c r="C64" s="100"/>
-      <c r="D64" s="89"/>
-      <c r="E64" s="89"/>
-      <c r="F64" s="89"/>
-      <c r="G64" s="89"/>
-      <c r="H64" s="89"/>
-      <c r="I64" s="89"/>
-      <c r="J64" s="89"/>
-      <c r="K64" s="89"/>
-      <c r="L64" s="89"/>
-      <c r="M64" s="89"/>
-      <c r="N64" s="89"/>
-      <c r="O64" s="89"/>
-      <c r="P64" s="89"/>
-      <c r="Q64" s="89"/>
-      <c r="R64" s="89"/>
-      <c r="S64" s="89"/>
-      <c r="T64" s="89"/>
-      <c r="U64" s="89"/>
-      <c r="V64" s="91"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="51"/>
+      <c r="L64" s="51"/>
+      <c r="M64" s="51"/>
+      <c r="N64" s="51"/>
+      <c r="O64" s="51"/>
+      <c r="P64" s="51"/>
+      <c r="Q64" s="51"/>
+      <c r="R64" s="51"/>
+      <c r="S64" s="51"/>
+      <c r="T64" s="51"/>
+      <c r="U64" s="51"/>
+      <c r="V64" s="53"/>
     </row>
     <row r="65" spans="2:22">
-      <c r="B65" s="86"/>
-      <c r="C65" s="100"/>
-      <c r="D65" s="89"/>
-      <c r="E65" s="89"/>
-      <c r="F65" s="89"/>
-      <c r="G65" s="89"/>
-      <c r="H65" s="89"/>
-      <c r="I65" s="89"/>
-      <c r="J65" s="89"/>
-      <c r="K65" s="89"/>
-      <c r="L65" s="89"/>
-      <c r="M65" s="89"/>
-      <c r="N65" s="89"/>
-      <c r="O65" s="89"/>
-      <c r="P65" s="89"/>
-      <c r="Q65" s="89"/>
-      <c r="R65" s="89"/>
-      <c r="S65" s="89"/>
-      <c r="T65" s="89"/>
-      <c r="U65" s="89"/>
-      <c r="V65" s="91"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="51"/>
+      <c r="M65" s="51"/>
+      <c r="N65" s="51"/>
+      <c r="O65" s="51"/>
+      <c r="P65" s="51"/>
+      <c r="Q65" s="51"/>
+      <c r="R65" s="51"/>
+      <c r="S65" s="51"/>
+      <c r="T65" s="51"/>
+      <c r="U65" s="51"/>
+      <c r="V65" s="53"/>
     </row>
     <row r="66" spans="2:22" ht="23">
-      <c r="B66" s="86"/>
-      <c r="C66" s="101"/>
-      <c r="D66" s="89"/>
-      <c r="E66" s="89"/>
-      <c r="F66" s="89"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="89"/>
-      <c r="I66" s="89"/>
-      <c r="J66" s="89"/>
-      <c r="K66" s="89"/>
-      <c r="L66" s="89"/>
-      <c r="M66" s="89"/>
-      <c r="N66" s="89"/>
-      <c r="O66" s="89"/>
-      <c r="P66" s="89"/>
-      <c r="Q66" s="89"/>
-      <c r="R66" s="89"/>
-      <c r="S66" s="89"/>
-      <c r="T66" s="89"/>
-      <c r="U66" s="89"/>
-      <c r="V66" s="91"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="51"/>
+      <c r="M66" s="51"/>
+      <c r="N66" s="51"/>
+      <c r="O66" s="51"/>
+      <c r="P66" s="51"/>
+      <c r="Q66" s="51"/>
+      <c r="R66" s="51"/>
+      <c r="S66" s="51"/>
+      <c r="T66" s="51"/>
+      <c r="U66" s="51"/>
+      <c r="V66" s="53"/>
     </row>
     <row r="67" spans="2:22" ht="23">
-      <c r="B67" s="86"/>
-      <c r="C67" s="101"/>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89"/>
-      <c r="F67" s="89"/>
-      <c r="G67" s="89"/>
-      <c r="H67" s="89"/>
-      <c r="I67" s="89"/>
-      <c r="J67" s="89"/>
-      <c r="K67" s="89"/>
-      <c r="L67" s="89"/>
-      <c r="M67" s="89"/>
-      <c r="N67" s="89"/>
-      <c r="O67" s="89"/>
-      <c r="P67" s="89"/>
-      <c r="Q67" s="89"/>
-      <c r="R67" s="89"/>
-      <c r="S67" s="89"/>
-      <c r="T67" s="89"/>
-      <c r="U67" s="89"/>
-      <c r="V67" s="91"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="51"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="51"/>
+      <c r="K67" s="51"/>
+      <c r="L67" s="51"/>
+      <c r="M67" s="51"/>
+      <c r="N67" s="51"/>
+      <c r="O67" s="51"/>
+      <c r="P67" s="51"/>
+      <c r="Q67" s="51"/>
+      <c r="R67" s="51"/>
+      <c r="S67" s="51"/>
+      <c r="T67" s="51"/>
+      <c r="U67" s="51"/>
+      <c r="V67" s="53"/>
     </row>
     <row r="68" spans="2:22" ht="23">
-      <c r="B68" s="86"/>
-      <c r="C68" s="101"/>
-      <c r="D68" s="89"/>
-      <c r="E68" s="89"/>
-      <c r="F68" s="89"/>
-      <c r="G68" s="89"/>
-      <c r="H68" s="89"/>
-      <c r="I68" s="89"/>
-      <c r="J68" s="89"/>
-      <c r="K68" s="89"/>
-      <c r="L68" s="89"/>
-      <c r="M68" s="89"/>
-      <c r="N68" s="89"/>
-      <c r="O68" s="89"/>
-      <c r="P68" s="89"/>
-      <c r="Q68" s="89"/>
-      <c r="R68" s="89"/>
-      <c r="S68" s="89"/>
-      <c r="T68" s="89"/>
-      <c r="U68" s="89"/>
-      <c r="V68" s="91"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="51"/>
+      <c r="L68" s="51"/>
+      <c r="M68" s="51"/>
+      <c r="N68" s="51"/>
+      <c r="O68" s="51"/>
+      <c r="P68" s="51"/>
+      <c r="Q68" s="51"/>
+      <c r="R68" s="51"/>
+      <c r="S68" s="51"/>
+      <c r="T68" s="51"/>
+      <c r="U68" s="51"/>
+      <c r="V68" s="53"/>
     </row>
     <row r="69" spans="2:22" ht="23">
-      <c r="B69" s="86"/>
-      <c r="C69" s="102"/>
-      <c r="D69" s="89"/>
-      <c r="E69" s="89"/>
-      <c r="F69" s="89"/>
-      <c r="G69" s="89"/>
-      <c r="H69" s="89"/>
-      <c r="I69" s="89"/>
-      <c r="J69" s="89"/>
-      <c r="K69" s="89"/>
-      <c r="L69" s="89"/>
-      <c r="M69" s="89"/>
-      <c r="N69" s="89"/>
-      <c r="O69" s="89"/>
-      <c r="P69" s="89"/>
-      <c r="Q69" s="89"/>
-      <c r="R69" s="89"/>
-      <c r="S69" s="89"/>
-      <c r="T69" s="89"/>
-      <c r="U69" s="89"/>
-      <c r="V69" s="91"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="51"/>
+      <c r="L69" s="51"/>
+      <c r="M69" s="51"/>
+      <c r="N69" s="51"/>
+      <c r="O69" s="51"/>
+      <c r="P69" s="51"/>
+      <c r="Q69" s="51"/>
+      <c r="R69" s="51"/>
+      <c r="S69" s="51"/>
+      <c r="T69" s="51"/>
+      <c r="U69" s="51"/>
+      <c r="V69" s="53"/>
     </row>
     <row r="70" spans="2:22">
-      <c r="B70" s="86"/>
-      <c r="C70" s="100"/>
-      <c r="D70" s="89"/>
-      <c r="E70" s="89"/>
-      <c r="F70" s="89"/>
-      <c r="G70" s="89"/>
-      <c r="H70" s="89"/>
-      <c r="I70" s="89"/>
-      <c r="J70" s="89"/>
-      <c r="K70" s="89"/>
-      <c r="L70" s="89"/>
-      <c r="M70" s="89"/>
-      <c r="N70" s="89"/>
-      <c r="O70" s="89"/>
-      <c r="P70" s="89"/>
-      <c r="Q70" s="89"/>
-      <c r="R70" s="89"/>
-      <c r="S70" s="89"/>
-      <c r="T70" s="89"/>
-      <c r="U70" s="89"/>
-      <c r="V70" s="91"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="51"/>
+      <c r="J70" s="51"/>
+      <c r="K70" s="51"/>
+      <c r="L70" s="51"/>
+      <c r="M70" s="51"/>
+      <c r="N70" s="51"/>
+      <c r="O70" s="51"/>
+      <c r="P70" s="51"/>
+      <c r="Q70" s="51"/>
+      <c r="R70" s="51"/>
+      <c r="S70" s="51"/>
+      <c r="T70" s="51"/>
+      <c r="U70" s="51"/>
+      <c r="V70" s="53"/>
     </row>
     <row r="71" spans="2:22">
-      <c r="B71" s="86"/>
-      <c r="C71" s="100"/>
-      <c r="D71" s="89"/>
-      <c r="E71" s="89"/>
-      <c r="F71" s="89"/>
-      <c r="G71" s="89"/>
-      <c r="H71" s="89"/>
-      <c r="I71" s="89"/>
-      <c r="J71" s="89"/>
-      <c r="K71" s="89"/>
-      <c r="L71" s="89"/>
-      <c r="M71" s="89"/>
-      <c r="N71" s="89"/>
-      <c r="O71" s="89"/>
-      <c r="P71" s="89"/>
-      <c r="Q71" s="89"/>
-      <c r="R71" s="89"/>
-      <c r="S71" s="89"/>
-      <c r="T71" s="89"/>
-      <c r="U71" s="89"/>
-      <c r="V71" s="91"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="51"/>
+      <c r="I71" s="51"/>
+      <c r="J71" s="51"/>
+      <c r="K71" s="51"/>
+      <c r="L71" s="51"/>
+      <c r="M71" s="51"/>
+      <c r="N71" s="51"/>
+      <c r="O71" s="51"/>
+      <c r="P71" s="51"/>
+      <c r="Q71" s="51"/>
+      <c r="R71" s="51"/>
+      <c r="S71" s="51"/>
+      <c r="T71" s="51"/>
+      <c r="U71" s="51"/>
+      <c r="V71" s="53"/>
     </row>
     <row r="72" spans="2:22">
-      <c r="B72" s="86"/>
-      <c r="C72" s="100"/>
-      <c r="D72" s="89"/>
-      <c r="E72" s="89"/>
-      <c r="F72" s="89"/>
-      <c r="G72" s="89"/>
-      <c r="H72" s="89"/>
-      <c r="I72" s="89"/>
-      <c r="J72" s="89"/>
-      <c r="K72" s="89"/>
-      <c r="L72" s="89"/>
-      <c r="M72" s="89"/>
-      <c r="N72" s="89"/>
-      <c r="O72" s="89"/>
-      <c r="P72" s="89"/>
-      <c r="Q72" s="89"/>
-      <c r="R72" s="89"/>
-      <c r="S72" s="89"/>
-      <c r="T72" s="89"/>
-      <c r="U72" s="89"/>
-      <c r="V72" s="91"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="51"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="51"/>
+      <c r="J72" s="51"/>
+      <c r="K72" s="51"/>
+      <c r="L72" s="51"/>
+      <c r="M72" s="51"/>
+      <c r="N72" s="51"/>
+      <c r="O72" s="51"/>
+      <c r="P72" s="51"/>
+      <c r="Q72" s="51"/>
+      <c r="R72" s="51"/>
+      <c r="S72" s="51"/>
+      <c r="T72" s="51"/>
+      <c r="U72" s="51"/>
+      <c r="V72" s="53"/>
     </row>
     <row r="73" spans="2:22">
-      <c r="B73" s="86"/>
-      <c r="C73" s="100"/>
-      <c r="D73" s="89"/>
-      <c r="E73" s="89"/>
-      <c r="F73" s="89"/>
-      <c r="G73" s="89"/>
-      <c r="H73" s="89"/>
-      <c r="I73" s="89"/>
-      <c r="J73" s="89"/>
-      <c r="K73" s="89"/>
-      <c r="L73" s="89"/>
-      <c r="M73" s="89"/>
-      <c r="N73" s="89"/>
-      <c r="O73" s="89"/>
-      <c r="P73" s="89"/>
-      <c r="Q73" s="89"/>
-      <c r="R73" s="89"/>
-      <c r="S73" s="89"/>
-      <c r="T73" s="89"/>
-      <c r="U73" s="89"/>
-      <c r="V73" s="91"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="51"/>
+      <c r="L73" s="51"/>
+      <c r="M73" s="51"/>
+      <c r="N73" s="51"/>
+      <c r="O73" s="51"/>
+      <c r="P73" s="51"/>
+      <c r="Q73" s="51"/>
+      <c r="R73" s="51"/>
+      <c r="S73" s="51"/>
+      <c r="T73" s="51"/>
+      <c r="U73" s="51"/>
+      <c r="V73" s="53"/>
     </row>
     <row r="74" spans="2:22">
-      <c r="B74" s="86"/>
-      <c r="C74" s="100"/>
-      <c r="D74" s="89"/>
-      <c r="E74" s="89"/>
-      <c r="F74" s="89"/>
-      <c r="G74" s="89"/>
-      <c r="H74" s="89"/>
-      <c r="I74" s="89"/>
-      <c r="J74" s="89"/>
-      <c r="K74" s="89"/>
-      <c r="L74" s="89"/>
-      <c r="M74" s="89"/>
-      <c r="N74" s="89"/>
-      <c r="O74" s="89"/>
-      <c r="P74" s="89"/>
-      <c r="Q74" s="89"/>
-      <c r="R74" s="89"/>
-      <c r="S74" s="89"/>
-      <c r="T74" s="89"/>
-      <c r="U74" s="89"/>
-      <c r="V74" s="91"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="51"/>
+      <c r="L74" s="51"/>
+      <c r="M74" s="51"/>
+      <c r="N74" s="51"/>
+      <c r="O74" s="51"/>
+      <c r="P74" s="51"/>
+      <c r="Q74" s="51"/>
+      <c r="R74" s="51"/>
+      <c r="S74" s="51"/>
+      <c r="T74" s="51"/>
+      <c r="U74" s="51"/>
+      <c r="V74" s="53"/>
     </row>
     <row r="75" spans="2:22">
-      <c r="B75" s="86"/>
-      <c r="C75" s="100"/>
-      <c r="D75" s="89"/>
-      <c r="E75" s="89"/>
-      <c r="F75" s="89"/>
-      <c r="G75" s="89"/>
-      <c r="H75" s="89"/>
-      <c r="I75" s="89"/>
-      <c r="J75" s="89"/>
-      <c r="K75" s="89"/>
-      <c r="L75" s="89"/>
-      <c r="M75" s="89"/>
-      <c r="N75" s="89"/>
-      <c r="O75" s="89"/>
-      <c r="P75" s="89"/>
-      <c r="Q75" s="89"/>
-      <c r="R75" s="89"/>
-      <c r="S75" s="89"/>
-      <c r="T75" s="89"/>
-      <c r="U75" s="89"/>
-      <c r="V75" s="91"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="51"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="51"/>
+      <c r="K75" s="51"/>
+      <c r="L75" s="51"/>
+      <c r="M75" s="51"/>
+      <c r="N75" s="51"/>
+      <c r="O75" s="51"/>
+      <c r="P75" s="51"/>
+      <c r="Q75" s="51"/>
+      <c r="R75" s="51"/>
+      <c r="S75" s="51"/>
+      <c r="T75" s="51"/>
+      <c r="U75" s="51"/>
+      <c r="V75" s="53"/>
     </row>
     <row r="76" spans="2:22">
-      <c r="B76" s="86"/>
-      <c r="C76" s="100"/>
-      <c r="D76" s="89"/>
-      <c r="E76" s="89"/>
-      <c r="F76" s="89"/>
-      <c r="G76" s="89"/>
-      <c r="H76" s="89"/>
-      <c r="I76" s="89"/>
-      <c r="J76" s="89"/>
-      <c r="K76" s="89"/>
-      <c r="L76" s="89"/>
-      <c r="M76" s="89"/>
-      <c r="N76" s="89"/>
-      <c r="O76" s="89"/>
-      <c r="P76" s="89"/>
-      <c r="Q76" s="89"/>
-      <c r="R76" s="89"/>
-      <c r="S76" s="89"/>
-      <c r="T76" s="89"/>
-      <c r="U76" s="89"/>
-      <c r="V76" s="91"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="51"/>
+      <c r="L76" s="51"/>
+      <c r="M76" s="51"/>
+      <c r="N76" s="51"/>
+      <c r="O76" s="51"/>
+      <c r="P76" s="51"/>
+      <c r="Q76" s="51"/>
+      <c r="R76" s="51"/>
+      <c r="S76" s="51"/>
+      <c r="T76" s="51"/>
+      <c r="U76" s="51"/>
+      <c r="V76" s="53"/>
     </row>
     <row r="77" spans="2:22">
-      <c r="B77" s="86"/>
-      <c r="C77" s="100"/>
-      <c r="D77" s="89"/>
-      <c r="E77" s="89"/>
-      <c r="F77" s="89"/>
-      <c r="G77" s="89"/>
-      <c r="H77" s="89"/>
-      <c r="I77" s="89"/>
-      <c r="J77" s="89"/>
-      <c r="K77" s="89"/>
-      <c r="L77" s="89"/>
-      <c r="M77" s="89"/>
-      <c r="N77" s="89"/>
-      <c r="O77" s="89"/>
-      <c r="P77" s="89"/>
-      <c r="Q77" s="89"/>
-      <c r="R77" s="89"/>
-      <c r="S77" s="89"/>
-      <c r="T77" s="89"/>
-      <c r="U77" s="89"/>
-      <c r="V77" s="91"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="51"/>
+      <c r="J77" s="51"/>
+      <c r="K77" s="51"/>
+      <c r="L77" s="51"/>
+      <c r="M77" s="51"/>
+      <c r="N77" s="51"/>
+      <c r="O77" s="51"/>
+      <c r="P77" s="51"/>
+      <c r="Q77" s="51"/>
+      <c r="R77" s="51"/>
+      <c r="S77" s="51"/>
+      <c r="T77" s="51"/>
+      <c r="U77" s="51"/>
+      <c r="V77" s="53"/>
     </row>
     <row r="78" spans="2:22">
-      <c r="B78" s="86"/>
-      <c r="C78" s="100"/>
-      <c r="D78" s="89"/>
-      <c r="E78" s="89"/>
-      <c r="F78" s="89"/>
-      <c r="G78" s="89"/>
-      <c r="H78" s="89"/>
-      <c r="I78" s="89"/>
-      <c r="J78" s="89"/>
-      <c r="K78" s="89"/>
-      <c r="L78" s="89"/>
-      <c r="M78" s="89"/>
-      <c r="N78" s="89"/>
-      <c r="O78" s="89"/>
-      <c r="P78" s="89"/>
-      <c r="Q78" s="89"/>
-      <c r="R78" s="89"/>
-      <c r="S78" s="89"/>
-      <c r="T78" s="89"/>
-      <c r="U78" s="89"/>
-      <c r="V78" s="91"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="51"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="51"/>
+      <c r="N78" s="51"/>
+      <c r="O78" s="51"/>
+      <c r="P78" s="51"/>
+      <c r="Q78" s="51"/>
+      <c r="R78" s="51"/>
+      <c r="S78" s="51"/>
+      <c r="T78" s="51"/>
+      <c r="U78" s="51"/>
+      <c r="V78" s="53"/>
     </row>
     <row r="79" spans="2:22">
-      <c r="B79" s="86"/>
-      <c r="C79" s="100"/>
-      <c r="D79" s="89"/>
-      <c r="E79" s="89"/>
-      <c r="F79" s="89"/>
-      <c r="G79" s="89"/>
-      <c r="H79" s="89"/>
-      <c r="I79" s="89"/>
-      <c r="J79" s="89"/>
-      <c r="K79" s="89"/>
-      <c r="L79" s="89"/>
-      <c r="M79" s="89"/>
-      <c r="N79" s="89"/>
-      <c r="O79" s="89"/>
-      <c r="P79" s="89"/>
-      <c r="Q79" s="89"/>
-      <c r="R79" s="89"/>
-      <c r="S79" s="89"/>
-      <c r="T79" s="89"/>
-      <c r="U79" s="89"/>
-      <c r="V79" s="91"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="51"/>
+      <c r="G79" s="51"/>
+      <c r="H79" s="51"/>
+      <c r="I79" s="51"/>
+      <c r="J79" s="51"/>
+      <c r="K79" s="51"/>
+      <c r="L79" s="51"/>
+      <c r="M79" s="51"/>
+      <c r="N79" s="51"/>
+      <c r="O79" s="51"/>
+      <c r="P79" s="51"/>
+      <c r="Q79" s="51"/>
+      <c r="R79" s="51"/>
+      <c r="S79" s="51"/>
+      <c r="T79" s="51"/>
+      <c r="U79" s="51"/>
+      <c r="V79" s="53"/>
     </row>
     <row r="80" spans="2:22">
-      <c r="B80" s="86"/>
-      <c r="C80" s="100"/>
-      <c r="D80" s="89"/>
-      <c r="E80" s="89"/>
-      <c r="F80" s="89"/>
-      <c r="G80" s="89"/>
-      <c r="H80" s="89"/>
-      <c r="I80" s="89"/>
-      <c r="J80" s="89"/>
-      <c r="K80" s="89"/>
-      <c r="L80" s="89"/>
-      <c r="M80" s="89"/>
-      <c r="N80" s="89"/>
-      <c r="O80" s="89"/>
-      <c r="P80" s="89"/>
-      <c r="Q80" s="89"/>
-      <c r="R80" s="89"/>
-      <c r="S80" s="89"/>
-      <c r="T80" s="89"/>
-      <c r="U80" s="89"/>
-      <c r="V80" s="91"/>
+      <c r="B80" s="48"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="51"/>
+      <c r="E80" s="51"/>
+      <c r="F80" s="51"/>
+      <c r="G80" s="51"/>
+      <c r="H80" s="51"/>
+      <c r="I80" s="51"/>
+      <c r="J80" s="51"/>
+      <c r="K80" s="51"/>
+      <c r="L80" s="51"/>
+      <c r="M80" s="51"/>
+      <c r="N80" s="51"/>
+      <c r="O80" s="51"/>
+      <c r="P80" s="51"/>
+      <c r="Q80" s="51"/>
+      <c r="R80" s="51"/>
+      <c r="S80" s="51"/>
+      <c r="T80" s="51"/>
+      <c r="U80" s="51"/>
+      <c r="V80" s="53"/>
     </row>
     <row r="81" spans="2:22">
-      <c r="B81" s="86"/>
-      <c r="C81" s="100"/>
-      <c r="D81" s="89"/>
-      <c r="E81" s="89"/>
-      <c r="F81" s="89"/>
-      <c r="G81" s="89"/>
-      <c r="H81" s="89"/>
-      <c r="I81" s="89"/>
-      <c r="J81" s="89"/>
-      <c r="K81" s="89"/>
-      <c r="L81" s="89"/>
-      <c r="M81" s="89"/>
-      <c r="N81" s="89"/>
-      <c r="O81" s="89"/>
-      <c r="P81" s="89"/>
-      <c r="Q81" s="89"/>
-      <c r="R81" s="89"/>
-      <c r="S81" s="89"/>
-      <c r="T81" s="89"/>
-      <c r="U81" s="89"/>
-      <c r="V81" s="91"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="62"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="51"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="51"/>
+      <c r="K81" s="51"/>
+      <c r="L81" s="51"/>
+      <c r="M81" s="51"/>
+      <c r="N81" s="51"/>
+      <c r="O81" s="51"/>
+      <c r="P81" s="51"/>
+      <c r="Q81" s="51"/>
+      <c r="R81" s="51"/>
+      <c r="S81" s="51"/>
+      <c r="T81" s="51"/>
+      <c r="U81" s="51"/>
+      <c r="V81" s="53"/>
     </row>
     <row r="82" spans="2:22">
-      <c r="B82" s="86"/>
-      <c r="C82" s="100"/>
-      <c r="D82" s="89"/>
-      <c r="E82" s="89"/>
-      <c r="F82" s="89"/>
-      <c r="G82" s="89"/>
-      <c r="H82" s="89"/>
-      <c r="I82" s="89"/>
-      <c r="J82" s="89"/>
-      <c r="K82" s="89"/>
-      <c r="L82" s="89"/>
-      <c r="M82" s="89"/>
-      <c r="N82" s="89"/>
-      <c r="O82" s="89"/>
-      <c r="P82" s="89"/>
-      <c r="Q82" s="89"/>
-      <c r="R82" s="89"/>
-      <c r="S82" s="89"/>
-      <c r="T82" s="89"/>
-      <c r="U82" s="89"/>
-      <c r="V82" s="91"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="51"/>
+      <c r="I82" s="51"/>
+      <c r="J82" s="51"/>
+      <c r="K82" s="51"/>
+      <c r="L82" s="51"/>
+      <c r="M82" s="51"/>
+      <c r="N82" s="51"/>
+      <c r="O82" s="51"/>
+      <c r="P82" s="51"/>
+      <c r="Q82" s="51"/>
+      <c r="R82" s="51"/>
+      <c r="S82" s="51"/>
+      <c r="T82" s="51"/>
+      <c r="U82" s="51"/>
+      <c r="V82" s="53"/>
     </row>
     <row r="83" spans="2:22">
-      <c r="B83" s="86"/>
-      <c r="C83" s="100"/>
-      <c r="D83" s="89"/>
-      <c r="E83" s="89"/>
-      <c r="F83" s="89"/>
-      <c r="G83" s="89"/>
-      <c r="H83" s="89"/>
-      <c r="I83" s="89"/>
-      <c r="J83" s="89"/>
-      <c r="K83" s="89"/>
-      <c r="L83" s="89"/>
-      <c r="M83" s="89"/>
-      <c r="N83" s="89"/>
-      <c r="O83" s="89"/>
-      <c r="P83" s="89"/>
-      <c r="Q83" s="89"/>
-      <c r="R83" s="89"/>
-      <c r="S83" s="89"/>
-      <c r="T83" s="89"/>
-      <c r="U83" s="89"/>
-      <c r="V83" s="91"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="62"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="51"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="51"/>
+      <c r="I83" s="51"/>
+      <c r="J83" s="51"/>
+      <c r="K83" s="51"/>
+      <c r="L83" s="51"/>
+      <c r="M83" s="51"/>
+      <c r="N83" s="51"/>
+      <c r="O83" s="51"/>
+      <c r="P83" s="51"/>
+      <c r="Q83" s="51"/>
+      <c r="R83" s="51"/>
+      <c r="S83" s="51"/>
+      <c r="T83" s="51"/>
+      <c r="U83" s="51"/>
+      <c r="V83" s="53"/>
     </row>
     <row r="84" spans="2:22">
-      <c r="B84" s="86"/>
-      <c r="C84" s="100"/>
-      <c r="D84" s="89"/>
-      <c r="E84" s="89"/>
-      <c r="F84" s="89"/>
-      <c r="G84" s="89"/>
-      <c r="H84" s="89"/>
-      <c r="I84" s="89"/>
-      <c r="J84" s="89"/>
-      <c r="K84" s="89"/>
-      <c r="L84" s="89"/>
-      <c r="M84" s="89"/>
-      <c r="N84" s="89"/>
-      <c r="O84" s="89"/>
-      <c r="P84" s="89"/>
-      <c r="Q84" s="89"/>
-      <c r="R84" s="89"/>
-      <c r="S84" s="89"/>
-      <c r="T84" s="89"/>
-      <c r="U84" s="89"/>
-      <c r="V84" s="91"/>
+      <c r="B84" s="48"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="51"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="51"/>
+      <c r="M84" s="51"/>
+      <c r="N84" s="51"/>
+      <c r="O84" s="51"/>
+      <c r="P84" s="51"/>
+      <c r="Q84" s="51"/>
+      <c r="R84" s="51"/>
+      <c r="S84" s="51"/>
+      <c r="T84" s="51"/>
+      <c r="U84" s="51"/>
+      <c r="V84" s="53"/>
     </row>
     <row r="85" spans="2:22">
-      <c r="B85" s="103" t="s">
+      <c r="B85" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="C85" s="104"/>
-      <c r="D85" s="104"/>
-      <c r="E85" s="104"/>
-      <c r="F85" s="104"/>
-      <c r="G85" s="104"/>
-      <c r="H85" s="104"/>
-      <c r="I85" s="104"/>
-      <c r="J85" s="104"/>
-      <c r="K85" s="104"/>
-      <c r="L85" s="104"/>
-      <c r="M85" s="104"/>
-      <c r="N85" s="104"/>
-      <c r="O85" s="104"/>
-      <c r="P85" s="104"/>
-      <c r="Q85" s="104"/>
-      <c r="R85" s="104"/>
-      <c r="S85" s="104"/>
-      <c r="T85" s="104"/>
-      <c r="U85" s="104"/>
-      <c r="V85" s="105"/>
+      <c r="C85" s="87"/>
+      <c r="D85" s="87"/>
+      <c r="E85" s="87"/>
+      <c r="F85" s="87"/>
+      <c r="G85" s="87"/>
+      <c r="H85" s="87"/>
+      <c r="I85" s="87"/>
+      <c r="J85" s="87"/>
+      <c r="K85" s="87"/>
+      <c r="L85" s="87"/>
+      <c r="M85" s="87"/>
+      <c r="N85" s="87"/>
+      <c r="O85" s="87"/>
+      <c r="P85" s="87"/>
+      <c r="Q85" s="87"/>
+      <c r="R85" s="87"/>
+      <c r="S85" s="87"/>
+      <c r="T85" s="87"/>
+      <c r="U85" s="87"/>
+      <c r="V85" s="88"/>
     </row>
     <row r="86" spans="2:22">
-      <c r="B86" s="103"/>
-      <c r="C86" s="104"/>
-      <c r="D86" s="104"/>
-      <c r="E86" s="104"/>
-      <c r="F86" s="104"/>
-      <c r="G86" s="104"/>
-      <c r="H86" s="104"/>
-      <c r="I86" s="104"/>
-      <c r="J86" s="104"/>
-      <c r="K86" s="104"/>
-      <c r="L86" s="104"/>
-      <c r="M86" s="104"/>
-      <c r="N86" s="104"/>
-      <c r="O86" s="104"/>
-      <c r="P86" s="104"/>
-      <c r="Q86" s="104"/>
-      <c r="R86" s="104"/>
-      <c r="S86" s="104"/>
-      <c r="T86" s="104"/>
-      <c r="U86" s="104"/>
-      <c r="V86" s="105"/>
+      <c r="B86" s="86"/>
+      <c r="C86" s="87"/>
+      <c r="D86" s="87"/>
+      <c r="E86" s="87"/>
+      <c r="F86" s="87"/>
+      <c r="G86" s="87"/>
+      <c r="H86" s="87"/>
+      <c r="I86" s="87"/>
+      <c r="J86" s="87"/>
+      <c r="K86" s="87"/>
+      <c r="L86" s="87"/>
+      <c r="M86" s="87"/>
+      <c r="N86" s="87"/>
+      <c r="O86" s="87"/>
+      <c r="P86" s="87"/>
+      <c r="Q86" s="87"/>
+      <c r="R86" s="87"/>
+      <c r="S86" s="87"/>
+      <c r="T86" s="87"/>
+      <c r="U86" s="87"/>
+      <c r="V86" s="88"/>
     </row>
     <row r="87" spans="2:22" ht="25">
-      <c r="B87" s="110" t="s">
+      <c r="B87" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="C87" s="107"/>
-      <c r="D87" s="108"/>
-      <c r="E87" s="108"/>
-      <c r="F87" s="108"/>
-      <c r="G87" s="108"/>
-      <c r="H87" s="108"/>
-      <c r="I87" s="108"/>
-      <c r="J87" s="89"/>
-      <c r="K87" s="89"/>
-      <c r="L87" s="89"/>
-      <c r="M87" s="89"/>
-      <c r="N87" s="89"/>
-      <c r="O87" s="89"/>
-      <c r="P87" s="89"/>
-      <c r="Q87" s="89"/>
-      <c r="R87" s="89"/>
-      <c r="S87" s="89"/>
-      <c r="T87" s="89"/>
-      <c r="U87" s="89"/>
-      <c r="V87" s="91"/>
+      <c r="C87" s="66"/>
+      <c r="D87" s="67"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="67"/>
+      <c r="G87" s="67"/>
+      <c r="H87" s="67"/>
+      <c r="I87" s="67"/>
+      <c r="J87" s="51"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="51"/>
+      <c r="M87" s="51"/>
+      <c r="N87" s="51"/>
+      <c r="O87" s="51"/>
+      <c r="P87" s="51"/>
+      <c r="Q87" s="51"/>
+      <c r="R87" s="51"/>
+      <c r="S87" s="51"/>
+      <c r="T87" s="51"/>
+      <c r="U87" s="51"/>
+      <c r="V87" s="53"/>
     </row>
     <row r="88" spans="2:22" ht="25">
-      <c r="B88" s="110" t="s">
+      <c r="B88" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="C88" s="107"/>
-      <c r="D88" s="108"/>
-      <c r="E88" s="108"/>
-      <c r="F88" s="108"/>
-      <c r="G88" s="108"/>
-      <c r="H88" s="108"/>
-      <c r="I88" s="108"/>
-      <c r="J88" s="89"/>
-      <c r="K88" s="89"/>
-      <c r="L88" s="89"/>
-      <c r="M88" s="89"/>
-      <c r="N88" s="89"/>
-      <c r="O88" s="89"/>
-      <c r="P88" s="89"/>
-      <c r="Q88" s="89"/>
-      <c r="R88" s="89"/>
-      <c r="S88" s="89"/>
-      <c r="T88" s="89"/>
-      <c r="U88" s="89"/>
-      <c r="V88" s="91"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="67"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="67"/>
+      <c r="H88" s="67"/>
+      <c r="I88" s="67"/>
+      <c r="J88" s="51"/>
+      <c r="K88" s="51"/>
+      <c r="L88" s="51"/>
+      <c r="M88" s="51"/>
+      <c r="N88" s="51"/>
+      <c r="O88" s="51"/>
+      <c r="P88" s="51"/>
+      <c r="Q88" s="51"/>
+      <c r="R88" s="51"/>
+      <c r="S88" s="51"/>
+      <c r="T88" s="51"/>
+      <c r="U88" s="51"/>
+      <c r="V88" s="53"/>
     </row>
     <row r="89" spans="2:22" ht="25">
-      <c r="B89" s="113" t="s">
+      <c r="B89" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="C89" s="100"/>
-      <c r="D89" s="89"/>
-      <c r="E89" s="89"/>
-      <c r="F89" s="89"/>
-      <c r="G89" s="89"/>
-      <c r="H89" s="89"/>
-      <c r="I89" s="89"/>
-      <c r="J89" s="89"/>
-      <c r="K89" s="89"/>
-      <c r="L89" s="89"/>
-      <c r="M89" s="89"/>
-      <c r="N89" s="89"/>
-      <c r="O89" s="89"/>
-      <c r="P89" s="89"/>
-      <c r="Q89" s="89"/>
-      <c r="R89" s="89"/>
-      <c r="S89" s="89"/>
-      <c r="T89" s="89"/>
-      <c r="U89" s="89"/>
-      <c r="V89" s="91"/>
+      <c r="C89" s="62"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="51"/>
+      <c r="G89" s="51"/>
+      <c r="H89" s="51"/>
+      <c r="I89" s="51"/>
+      <c r="J89" s="51"/>
+      <c r="K89" s="51"/>
+      <c r="L89" s="51"/>
+      <c r="M89" s="51"/>
+      <c r="N89" s="51"/>
+      <c r="O89" s="51"/>
+      <c r="P89" s="51"/>
+      <c r="Q89" s="51"/>
+      <c r="R89" s="51"/>
+      <c r="S89" s="51"/>
+      <c r="T89" s="51"/>
+      <c r="U89" s="51"/>
+      <c r="V89" s="53"/>
     </row>
     <row r="90" spans="2:22" ht="17" thickBot="1">
-      <c r="B90" s="92"/>
-      <c r="C90" s="112"/>
-      <c r="D90" s="94"/>
-      <c r="E90" s="94"/>
-      <c r="F90" s="94"/>
-      <c r="G90" s="94"/>
-      <c r="H90" s="94"/>
-      <c r="I90" s="94"/>
-      <c r="J90" s="94"/>
-      <c r="K90" s="94"/>
-      <c r="L90" s="94"/>
-      <c r="M90" s="94"/>
-      <c r="N90" s="94"/>
-      <c r="O90" s="94"/>
-      <c r="P90" s="94"/>
-      <c r="Q90" s="94"/>
-      <c r="R90" s="94"/>
-      <c r="S90" s="94"/>
-      <c r="T90" s="94"/>
-      <c r="U90" s="94"/>
-      <c r="V90" s="96"/>
+      <c r="B90" s="54"/>
+      <c r="C90" s="71"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="56"/>
+      <c r="J90" s="56"/>
+      <c r="K90" s="56"/>
+      <c r="L90" s="56"/>
+      <c r="M90" s="56"/>
+      <c r="N90" s="56"/>
+      <c r="O90" s="56"/>
+      <c r="P90" s="56"/>
+      <c r="Q90" s="56"/>
+      <c r="R90" s="56"/>
+      <c r="S90" s="56"/>
+      <c r="T90" s="56"/>
+      <c r="U90" s="56"/>
+      <c r="V90" s="58"/>
     </row>
     <row r="93" spans="2:22" ht="17" thickBot="1"/>
     <row r="94" spans="2:22">
@@ -12669,723 +12648,740 @@
       <c r="V96" s="85"/>
     </row>
     <row r="97" spans="2:22" ht="29" customHeight="1">
-      <c r="B97" s="86"/>
-      <c r="C97" s="100"/>
-      <c r="D97" s="89"/>
-      <c r="E97" s="89"/>
-      <c r="F97" s="89"/>
-      <c r="G97" s="89"/>
-      <c r="H97" s="89"/>
-      <c r="I97" s="89"/>
-      <c r="J97" s="89"/>
-      <c r="K97" s="89"/>
-      <c r="L97" s="114" t="s">
+      <c r="B97" s="48"/>
+      <c r="C97" s="62"/>
+      <c r="D97" s="51"/>
+      <c r="E97" s="51"/>
+      <c r="F97" s="51"/>
+      <c r="G97" s="51"/>
+      <c r="H97" s="51"/>
+      <c r="I97" s="51"/>
+      <c r="J97" s="51"/>
+      <c r="K97" s="51"/>
+      <c r="L97" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="M97" s="114"/>
-      <c r="N97" s="114"/>
-      <c r="O97" s="114"/>
-      <c r="P97" s="114"/>
-      <c r="Q97" s="114"/>
-      <c r="R97" s="114"/>
-      <c r="S97" s="114"/>
-      <c r="T97" s="114"/>
-      <c r="U97" s="114"/>
-      <c r="V97" s="115"/>
+      <c r="M97" s="78"/>
+      <c r="N97" s="78"/>
+      <c r="O97" s="78"/>
+      <c r="P97" s="78"/>
+      <c r="Q97" s="78"/>
+      <c r="R97" s="78"/>
+      <c r="S97" s="78"/>
+      <c r="T97" s="78"/>
+      <c r="U97" s="78"/>
+      <c r="V97" s="79"/>
     </row>
     <row r="98" spans="2:22" ht="25" customHeight="1">
-      <c r="B98" s="86"/>
-      <c r="C98" s="100"/>
-      <c r="D98" s="89"/>
-      <c r="E98" s="89"/>
-      <c r="F98" s="89"/>
-      <c r="G98" s="89"/>
-      <c r="H98" s="89"/>
-      <c r="I98" s="89"/>
-      <c r="J98" s="89"/>
-      <c r="K98" s="89"/>
-      <c r="L98" s="114"/>
-      <c r="M98" s="114"/>
-      <c r="N98" s="114"/>
-      <c r="O98" s="114"/>
-      <c r="P98" s="114"/>
-      <c r="Q98" s="114"/>
-      <c r="R98" s="114"/>
-      <c r="S98" s="114"/>
-      <c r="T98" s="114"/>
-      <c r="U98" s="114"/>
-      <c r="V98" s="115"/>
+      <c r="B98" s="48"/>
+      <c r="C98" s="62"/>
+      <c r="D98" s="51"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="51"/>
+      <c r="I98" s="51"/>
+      <c r="J98" s="51"/>
+      <c r="K98" s="51"/>
+      <c r="L98" s="78"/>
+      <c r="M98" s="78"/>
+      <c r="N98" s="78"/>
+      <c r="O98" s="78"/>
+      <c r="P98" s="78"/>
+      <c r="Q98" s="78"/>
+      <c r="R98" s="78"/>
+      <c r="S98" s="78"/>
+      <c r="T98" s="78"/>
+      <c r="U98" s="78"/>
+      <c r="V98" s="79"/>
     </row>
     <row r="99" spans="2:22" ht="16" customHeight="1">
-      <c r="B99" s="86"/>
-      <c r="C99" s="100"/>
-      <c r="D99" s="89"/>
-      <c r="E99" s="89"/>
-      <c r="F99" s="89"/>
-      <c r="G99" s="89"/>
-      <c r="H99" s="89"/>
-      <c r="I99" s="89"/>
-      <c r="J99" s="89"/>
-      <c r="K99" s="89"/>
-      <c r="L99" s="116" t="s">
+      <c r="B99" s="48"/>
+      <c r="C99" s="62"/>
+      <c r="D99" s="51"/>
+      <c r="E99" s="51"/>
+      <c r="F99" s="51"/>
+      <c r="G99" s="51"/>
+      <c r="H99" s="51"/>
+      <c r="I99" s="51"/>
+      <c r="J99" s="51"/>
+      <c r="K99" s="51"/>
+      <c r="L99" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="M99" s="116"/>
-      <c r="N99" s="116"/>
-      <c r="O99" s="116"/>
-      <c r="P99" s="116"/>
-      <c r="Q99" s="116"/>
-      <c r="R99" s="116"/>
-      <c r="S99" s="116"/>
-      <c r="T99" s="116"/>
-      <c r="U99" s="116"/>
-      <c r="V99" s="117"/>
+      <c r="M99" s="74"/>
+      <c r="N99" s="74"/>
+      <c r="O99" s="74"/>
+      <c r="P99" s="74"/>
+      <c r="Q99" s="74"/>
+      <c r="R99" s="74"/>
+      <c r="S99" s="74"/>
+      <c r="T99" s="74"/>
+      <c r="U99" s="74"/>
+      <c r="V99" s="75"/>
     </row>
     <row r="100" spans="2:22" ht="16" customHeight="1">
-      <c r="B100" s="86"/>
-      <c r="C100" s="100"/>
-      <c r="D100" s="89"/>
-      <c r="E100" s="89"/>
-      <c r="F100" s="89"/>
-      <c r="G100" s="89"/>
-      <c r="H100" s="89"/>
-      <c r="I100" s="89"/>
-      <c r="J100" s="89"/>
-      <c r="K100" s="89"/>
-      <c r="L100" s="116"/>
-      <c r="M100" s="116"/>
-      <c r="N100" s="116"/>
-      <c r="O100" s="116"/>
-      <c r="P100" s="116"/>
-      <c r="Q100" s="116"/>
-      <c r="R100" s="116"/>
-      <c r="S100" s="116"/>
-      <c r="T100" s="116"/>
-      <c r="U100" s="116"/>
-      <c r="V100" s="117"/>
+      <c r="B100" s="48"/>
+      <c r="C100" s="62"/>
+      <c r="D100" s="51"/>
+      <c r="E100" s="51"/>
+      <c r="F100" s="51"/>
+      <c r="G100" s="51"/>
+      <c r="H100" s="51"/>
+      <c r="I100" s="51"/>
+      <c r="J100" s="51"/>
+      <c r="K100" s="51"/>
+      <c r="L100" s="74"/>
+      <c r="M100" s="74"/>
+      <c r="N100" s="74"/>
+      <c r="O100" s="74"/>
+      <c r="P100" s="74"/>
+      <c r="Q100" s="74"/>
+      <c r="R100" s="74"/>
+      <c r="S100" s="74"/>
+      <c r="T100" s="74"/>
+      <c r="U100" s="74"/>
+      <c r="V100" s="75"/>
     </row>
     <row r="101" spans="2:22">
-      <c r="B101" s="86"/>
-      <c r="C101" s="100"/>
-      <c r="D101" s="89"/>
-      <c r="E101" s="89"/>
-      <c r="F101" s="89"/>
-      <c r="G101" s="89"/>
-      <c r="H101" s="89"/>
-      <c r="I101" s="89"/>
-      <c r="J101" s="89"/>
-      <c r="K101" s="89"/>
-      <c r="L101" s="116"/>
-      <c r="M101" s="116"/>
-      <c r="N101" s="116"/>
-      <c r="O101" s="116"/>
-      <c r="P101" s="116"/>
-      <c r="Q101" s="116"/>
-      <c r="R101" s="116"/>
-      <c r="S101" s="116"/>
-      <c r="T101" s="116"/>
-      <c r="U101" s="116"/>
-      <c r="V101" s="117"/>
+      <c r="B101" s="48"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="51"/>
+      <c r="E101" s="51"/>
+      <c r="F101" s="51"/>
+      <c r="G101" s="51"/>
+      <c r="H101" s="51"/>
+      <c r="I101" s="51"/>
+      <c r="J101" s="51"/>
+      <c r="K101" s="51"/>
+      <c r="L101" s="74"/>
+      <c r="M101" s="74"/>
+      <c r="N101" s="74"/>
+      <c r="O101" s="74"/>
+      <c r="P101" s="74"/>
+      <c r="Q101" s="74"/>
+      <c r="R101" s="74"/>
+      <c r="S101" s="74"/>
+      <c r="T101" s="74"/>
+      <c r="U101" s="74"/>
+      <c r="V101" s="75"/>
     </row>
     <row r="102" spans="2:22" ht="25" customHeight="1">
-      <c r="B102" s="86"/>
-      <c r="C102" s="100"/>
-      <c r="D102" s="89"/>
-      <c r="E102" s="89"/>
-      <c r="F102" s="89"/>
-      <c r="G102" s="89"/>
-      <c r="H102" s="89"/>
-      <c r="I102" s="89"/>
-      <c r="J102" s="89"/>
-      <c r="K102" s="89"/>
-      <c r="L102" s="116" t="s">
+      <c r="B102" s="48"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="51"/>
+      <c r="E102" s="51"/>
+      <c r="F102" s="51"/>
+      <c r="G102" s="51"/>
+      <c r="H102" s="51"/>
+      <c r="I102" s="51"/>
+      <c r="J102" s="51"/>
+      <c r="K102" s="51"/>
+      <c r="L102" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="M102" s="116"/>
-      <c r="N102" s="116"/>
-      <c r="O102" s="116"/>
-      <c r="P102" s="116"/>
-      <c r="Q102" s="116"/>
-      <c r="R102" s="116"/>
-      <c r="S102" s="116"/>
-      <c r="T102" s="116"/>
-      <c r="U102" s="116"/>
-      <c r="V102" s="117"/>
+      <c r="M102" s="74"/>
+      <c r="N102" s="74"/>
+      <c r="O102" s="74"/>
+      <c r="P102" s="74"/>
+      <c r="Q102" s="74"/>
+      <c r="R102" s="74"/>
+      <c r="S102" s="74"/>
+      <c r="T102" s="74"/>
+      <c r="U102" s="74"/>
+      <c r="V102" s="75"/>
     </row>
     <row r="103" spans="2:22">
-      <c r="B103" s="86"/>
-      <c r="C103" s="100"/>
-      <c r="D103" s="89"/>
-      <c r="E103" s="89"/>
-      <c r="F103" s="89"/>
-      <c r="G103" s="89"/>
-      <c r="H103" s="89"/>
-      <c r="I103" s="89"/>
-      <c r="J103" s="89"/>
-      <c r="K103" s="89"/>
-      <c r="L103" s="116"/>
-      <c r="M103" s="116"/>
-      <c r="N103" s="116"/>
-      <c r="O103" s="116"/>
-      <c r="P103" s="116"/>
-      <c r="Q103" s="116"/>
-      <c r="R103" s="116"/>
-      <c r="S103" s="116"/>
-      <c r="T103" s="116"/>
-      <c r="U103" s="116"/>
-      <c r="V103" s="117"/>
+      <c r="B103" s="48"/>
+      <c r="C103" s="62"/>
+      <c r="D103" s="51"/>
+      <c r="E103" s="51"/>
+      <c r="F103" s="51"/>
+      <c r="G103" s="51"/>
+      <c r="H103" s="51"/>
+      <c r="I103" s="51"/>
+      <c r="J103" s="51"/>
+      <c r="K103" s="51"/>
+      <c r="L103" s="74"/>
+      <c r="M103" s="74"/>
+      <c r="N103" s="74"/>
+      <c r="O103" s="74"/>
+      <c r="P103" s="74"/>
+      <c r="Q103" s="74"/>
+      <c r="R103" s="74"/>
+      <c r="S103" s="74"/>
+      <c r="T103" s="74"/>
+      <c r="U103" s="74"/>
+      <c r="V103" s="75"/>
     </row>
     <row r="104" spans="2:22" ht="28">
-      <c r="B104" s="86"/>
-      <c r="C104" s="100"/>
-      <c r="D104" s="89"/>
-      <c r="E104" s="89"/>
-      <c r="F104" s="89"/>
-      <c r="G104" s="89"/>
-      <c r="H104" s="89"/>
-      <c r="I104" s="89"/>
-      <c r="J104" s="89"/>
-      <c r="K104" s="89"/>
-      <c r="L104" s="118" t="s">
+      <c r="B104" s="48"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="51"/>
+      <c r="E104" s="51"/>
+      <c r="F104" s="51"/>
+      <c r="G104" s="51"/>
+      <c r="H104" s="51"/>
+      <c r="I104" s="51"/>
+      <c r="J104" s="51"/>
+      <c r="K104" s="51"/>
+      <c r="L104" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="M104" s="89"/>
-      <c r="N104" s="89"/>
-      <c r="O104" s="89"/>
-      <c r="P104" s="89"/>
-      <c r="Q104" s="89"/>
-      <c r="R104" s="89"/>
-      <c r="S104" s="89"/>
-      <c r="T104" s="89"/>
-      <c r="U104" s="89"/>
-      <c r="V104" s="91"/>
+      <c r="M104" s="51"/>
+      <c r="N104" s="51"/>
+      <c r="O104" s="51"/>
+      <c r="P104" s="51"/>
+      <c r="Q104" s="51"/>
+      <c r="R104" s="51"/>
+      <c r="S104" s="51"/>
+      <c r="T104" s="51"/>
+      <c r="U104" s="51"/>
+      <c r="V104" s="53"/>
     </row>
     <row r="105" spans="2:22" ht="25" customHeight="1">
-      <c r="B105" s="86"/>
-      <c r="C105" s="101"/>
-      <c r="D105" s="89"/>
-      <c r="E105" s="89"/>
-      <c r="F105" s="89"/>
-      <c r="G105" s="89"/>
-      <c r="H105" s="89"/>
-      <c r="I105" s="89"/>
-      <c r="J105" s="89"/>
-      <c r="K105" s="89"/>
-      <c r="L105" s="119" t="s">
+      <c r="B105" s="48"/>
+      <c r="C105" s="63"/>
+      <c r="D105" s="51"/>
+      <c r="E105" s="51"/>
+      <c r="F105" s="51"/>
+      <c r="G105" s="51"/>
+      <c r="H105" s="51"/>
+      <c r="I105" s="51"/>
+      <c r="J105" s="51"/>
+      <c r="K105" s="51"/>
+      <c r="L105" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="M105" s="119"/>
-      <c r="N105" s="119"/>
-      <c r="O105" s="119"/>
-      <c r="P105" s="119"/>
-      <c r="Q105" s="119"/>
-      <c r="R105" s="119"/>
-      <c r="S105" s="119"/>
-      <c r="T105" s="119"/>
-      <c r="U105" s="119"/>
-      <c r="V105" s="117"/>
+      <c r="M105" s="74"/>
+      <c r="N105" s="74"/>
+      <c r="O105" s="74"/>
+      <c r="P105" s="74"/>
+      <c r="Q105" s="74"/>
+      <c r="R105" s="74"/>
+      <c r="S105" s="74"/>
+      <c r="T105" s="74"/>
+      <c r="U105" s="74"/>
+      <c r="V105" s="75"/>
     </row>
     <row r="106" spans="2:22" ht="23">
-      <c r="B106" s="86"/>
-      <c r="C106" s="101"/>
-      <c r="D106" s="89"/>
-      <c r="E106" s="89"/>
-      <c r="F106" s="89"/>
-      <c r="G106" s="89"/>
-      <c r="H106" s="89"/>
-      <c r="I106" s="89"/>
-      <c r="J106" s="89"/>
-      <c r="K106" s="89"/>
-      <c r="L106" s="119"/>
-      <c r="M106" s="119"/>
-      <c r="N106" s="119"/>
-      <c r="O106" s="119"/>
-      <c r="P106" s="119"/>
-      <c r="Q106" s="119"/>
-      <c r="R106" s="119"/>
-      <c r="S106" s="119"/>
-      <c r="T106" s="119"/>
-      <c r="U106" s="119"/>
-      <c r="V106" s="117"/>
+      <c r="B106" s="48"/>
+      <c r="C106" s="63"/>
+      <c r="D106" s="51"/>
+      <c r="E106" s="51"/>
+      <c r="F106" s="51"/>
+      <c r="G106" s="51"/>
+      <c r="H106" s="51"/>
+      <c r="I106" s="51"/>
+      <c r="J106" s="51"/>
+      <c r="K106" s="51"/>
+      <c r="L106" s="74"/>
+      <c r="M106" s="74"/>
+      <c r="N106" s="74"/>
+      <c r="O106" s="74"/>
+      <c r="P106" s="74"/>
+      <c r="Q106" s="74"/>
+      <c r="R106" s="74"/>
+      <c r="S106" s="74"/>
+      <c r="T106" s="74"/>
+      <c r="U106" s="74"/>
+      <c r="V106" s="75"/>
     </row>
     <row r="107" spans="2:22" ht="25">
-      <c r="B107" s="86"/>
-      <c r="C107" s="101"/>
-      <c r="D107" s="89"/>
-      <c r="E107" s="89"/>
-      <c r="F107" s="89"/>
-      <c r="G107" s="89"/>
-      <c r="H107" s="89"/>
-      <c r="I107" s="89"/>
-      <c r="J107" s="89"/>
-      <c r="K107" s="89"/>
-      <c r="L107" s="116" t="s">
+      <c r="B107" s="48"/>
+      <c r="C107" s="63"/>
+      <c r="D107" s="51"/>
+      <c r="E107" s="51"/>
+      <c r="F107" s="51"/>
+      <c r="G107" s="51"/>
+      <c r="H107" s="51"/>
+      <c r="I107" s="51"/>
+      <c r="J107" s="51"/>
+      <c r="K107" s="51"/>
+      <c r="L107" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="M107" s="116"/>
-      <c r="N107" s="116"/>
-      <c r="O107" s="116"/>
-      <c r="P107" s="116"/>
-      <c r="Q107" s="116"/>
-      <c r="R107" s="116"/>
-      <c r="S107" s="116"/>
-      <c r="T107" s="116"/>
-      <c r="U107" s="116"/>
-      <c r="V107" s="117"/>
+      <c r="M107" s="74"/>
+      <c r="N107" s="74"/>
+      <c r="O107" s="74"/>
+      <c r="P107" s="74"/>
+      <c r="Q107" s="74"/>
+      <c r="R107" s="74"/>
+      <c r="S107" s="74"/>
+      <c r="T107" s="74"/>
+      <c r="U107" s="74"/>
+      <c r="V107" s="75"/>
     </row>
     <row r="108" spans="2:22" ht="25">
-      <c r="B108" s="86"/>
-      <c r="C108" s="102"/>
-      <c r="D108" s="89"/>
-      <c r="E108" s="89"/>
-      <c r="F108" s="89"/>
-      <c r="G108" s="89"/>
-      <c r="H108" s="89"/>
-      <c r="I108" s="89"/>
-      <c r="J108" s="89"/>
-      <c r="K108" s="89"/>
-      <c r="L108" s="116" t="s">
+      <c r="B108" s="48"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="51"/>
+      <c r="E108" s="51"/>
+      <c r="F108" s="51"/>
+      <c r="G108" s="51"/>
+      <c r="H108" s="51"/>
+      <c r="I108" s="51"/>
+      <c r="J108" s="51"/>
+      <c r="K108" s="51"/>
+      <c r="L108" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="M108" s="116"/>
-      <c r="N108" s="116"/>
-      <c r="O108" s="116"/>
-      <c r="P108" s="116"/>
-      <c r="Q108" s="116"/>
-      <c r="R108" s="116"/>
-      <c r="S108" s="116"/>
-      <c r="T108" s="116"/>
-      <c r="U108" s="116"/>
-      <c r="V108" s="117"/>
+      <c r="M108" s="74"/>
+      <c r="N108" s="74"/>
+      <c r="O108" s="74"/>
+      <c r="P108" s="74"/>
+      <c r="Q108" s="74"/>
+      <c r="R108" s="74"/>
+      <c r="S108" s="74"/>
+      <c r="T108" s="74"/>
+      <c r="U108" s="74"/>
+      <c r="V108" s="75"/>
     </row>
     <row r="109" spans="2:22" ht="25">
-      <c r="B109" s="86"/>
-      <c r="C109" s="100"/>
-      <c r="D109" s="89"/>
-      <c r="E109" s="89"/>
-      <c r="F109" s="89"/>
-      <c r="G109" s="89"/>
-      <c r="H109" s="89"/>
-      <c r="I109" s="89"/>
-      <c r="J109" s="89"/>
-      <c r="K109" s="89"/>
-      <c r="L109" s="120" t="s">
+      <c r="B109" s="48"/>
+      <c r="C109" s="62"/>
+      <c r="D109" s="51"/>
+      <c r="E109" s="51"/>
+      <c r="F109" s="51"/>
+      <c r="G109" s="51"/>
+      <c r="H109" s="51"/>
+      <c r="I109" s="51"/>
+      <c r="J109" s="51"/>
+      <c r="K109" s="51"/>
+      <c r="L109" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="M109" s="120"/>
-      <c r="N109" s="120"/>
-      <c r="O109" s="120"/>
-      <c r="P109" s="120"/>
-      <c r="Q109" s="120"/>
-      <c r="R109" s="120"/>
-      <c r="S109" s="120"/>
-      <c r="T109" s="120"/>
-      <c r="U109" s="120"/>
-      <c r="V109" s="121"/>
+      <c r="M109" s="76"/>
+      <c r="N109" s="76"/>
+      <c r="O109" s="76"/>
+      <c r="P109" s="76"/>
+      <c r="Q109" s="76"/>
+      <c r="R109" s="76"/>
+      <c r="S109" s="76"/>
+      <c r="T109" s="76"/>
+      <c r="U109" s="76"/>
+      <c r="V109" s="77"/>
     </row>
     <row r="110" spans="2:22" ht="25" customHeight="1">
-      <c r="B110" s="86"/>
-      <c r="C110" s="100"/>
-      <c r="D110" s="89"/>
-      <c r="E110" s="89"/>
-      <c r="F110" s="89"/>
-      <c r="G110" s="89"/>
-      <c r="H110" s="89"/>
-      <c r="I110" s="89"/>
-      <c r="J110" s="89"/>
-      <c r="K110" s="89"/>
-      <c r="L110" s="116" t="s">
+      <c r="B110" s="48"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="51"/>
+      <c r="E110" s="51"/>
+      <c r="F110" s="51"/>
+      <c r="G110" s="51"/>
+      <c r="H110" s="51"/>
+      <c r="I110" s="51"/>
+      <c r="J110" s="51"/>
+      <c r="K110" s="51"/>
+      <c r="L110" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="M110" s="116"/>
-      <c r="N110" s="116"/>
-      <c r="O110" s="116"/>
-      <c r="P110" s="116"/>
-      <c r="Q110" s="116"/>
-      <c r="R110" s="116"/>
-      <c r="S110" s="116"/>
-      <c r="T110" s="116"/>
-      <c r="U110" s="116"/>
-      <c r="V110" s="117"/>
+      <c r="M110" s="74"/>
+      <c r="N110" s="74"/>
+      <c r="O110" s="74"/>
+      <c r="P110" s="74"/>
+      <c r="Q110" s="74"/>
+      <c r="R110" s="74"/>
+      <c r="S110" s="74"/>
+      <c r="T110" s="74"/>
+      <c r="U110" s="74"/>
+      <c r="V110" s="75"/>
     </row>
     <row r="111" spans="2:22" ht="16" customHeight="1">
-      <c r="B111" s="86"/>
-      <c r="C111" s="100"/>
-      <c r="D111" s="89"/>
-      <c r="E111" s="89"/>
-      <c r="F111" s="89"/>
-      <c r="G111" s="89"/>
-      <c r="H111" s="89"/>
-      <c r="I111" s="89"/>
-      <c r="J111" s="89"/>
-      <c r="K111" s="89"/>
-      <c r="L111" s="116"/>
-      <c r="M111" s="116"/>
-      <c r="N111" s="116"/>
-      <c r="O111" s="116"/>
-      <c r="P111" s="116"/>
-      <c r="Q111" s="116"/>
-      <c r="R111" s="116"/>
-      <c r="S111" s="116"/>
-      <c r="T111" s="116"/>
-      <c r="U111" s="116"/>
-      <c r="V111" s="117"/>
+      <c r="B111" s="48"/>
+      <c r="C111" s="62"/>
+      <c r="D111" s="51"/>
+      <c r="E111" s="51"/>
+      <c r="F111" s="51"/>
+      <c r="G111" s="51"/>
+      <c r="H111" s="51"/>
+      <c r="I111" s="51"/>
+      <c r="J111" s="51"/>
+      <c r="K111" s="51"/>
+      <c r="L111" s="74"/>
+      <c r="M111" s="74"/>
+      <c r="N111" s="74"/>
+      <c r="O111" s="74"/>
+      <c r="P111" s="74"/>
+      <c r="Q111" s="74"/>
+      <c r="R111" s="74"/>
+      <c r="S111" s="74"/>
+      <c r="T111" s="74"/>
+      <c r="U111" s="74"/>
+      <c r="V111" s="75"/>
     </row>
     <row r="112" spans="2:22">
-      <c r="B112" s="86"/>
-      <c r="C112" s="100"/>
-      <c r="D112" s="89"/>
-      <c r="E112" s="89"/>
-      <c r="F112" s="89"/>
-      <c r="G112" s="89"/>
-      <c r="H112" s="89"/>
-      <c r="I112" s="89"/>
-      <c r="J112" s="89"/>
-      <c r="K112" s="89"/>
-      <c r="L112" s="116"/>
-      <c r="M112" s="116"/>
-      <c r="N112" s="116"/>
-      <c r="O112" s="116"/>
-      <c r="P112" s="116"/>
-      <c r="Q112" s="116"/>
-      <c r="R112" s="116"/>
-      <c r="S112" s="116"/>
-      <c r="T112" s="116"/>
-      <c r="U112" s="116"/>
-      <c r="V112" s="117"/>
+      <c r="B112" s="48"/>
+      <c r="C112" s="62"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="51"/>
+      <c r="F112" s="51"/>
+      <c r="G112" s="51"/>
+      <c r="H112" s="51"/>
+      <c r="I112" s="51"/>
+      <c r="J112" s="51"/>
+      <c r="K112" s="51"/>
+      <c r="L112" s="74"/>
+      <c r="M112" s="74"/>
+      <c r="N112" s="74"/>
+      <c r="O112" s="74"/>
+      <c r="P112" s="74"/>
+      <c r="Q112" s="74"/>
+      <c r="R112" s="74"/>
+      <c r="S112" s="74"/>
+      <c r="T112" s="74"/>
+      <c r="U112" s="74"/>
+      <c r="V112" s="75"/>
     </row>
     <row r="113" spans="2:22" ht="28">
-      <c r="B113" s="86"/>
-      <c r="C113" s="100"/>
-      <c r="D113" s="89"/>
-      <c r="E113" s="89"/>
-      <c r="F113" s="89"/>
-      <c r="G113" s="89"/>
-      <c r="H113" s="89"/>
-      <c r="I113" s="89"/>
-      <c r="J113" s="89"/>
-      <c r="K113" s="89"/>
-      <c r="L113" s="118" t="s">
+      <c r="B113" s="48"/>
+      <c r="C113" s="62"/>
+      <c r="D113" s="51"/>
+      <c r="E113" s="51"/>
+      <c r="F113" s="51"/>
+      <c r="G113" s="51"/>
+      <c r="H113" s="51"/>
+      <c r="I113" s="51"/>
+      <c r="J113" s="51"/>
+      <c r="K113" s="51"/>
+      <c r="L113" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="M113" s="89"/>
-      <c r="N113" s="89"/>
-      <c r="O113" s="89"/>
-      <c r="P113" s="89"/>
-      <c r="Q113" s="89"/>
-      <c r="R113" s="89"/>
-      <c r="S113" s="89"/>
-      <c r="T113" s="89"/>
-      <c r="U113" s="89"/>
-      <c r="V113" s="91"/>
+      <c r="M113" s="51"/>
+      <c r="N113" s="51"/>
+      <c r="O113" s="51"/>
+      <c r="P113" s="51"/>
+      <c r="Q113" s="51"/>
+      <c r="R113" s="51"/>
+      <c r="S113" s="51"/>
+      <c r="T113" s="51"/>
+      <c r="U113" s="51"/>
+      <c r="V113" s="53"/>
     </row>
     <row r="114" spans="2:22" ht="25" customHeight="1">
-      <c r="B114" s="86"/>
-      <c r="C114" s="100"/>
-      <c r="D114" s="89"/>
-      <c r="E114" s="89"/>
-      <c r="F114" s="89"/>
-      <c r="G114" s="89"/>
-      <c r="H114" s="89"/>
-      <c r="I114" s="89"/>
-      <c r="J114" s="89"/>
-      <c r="K114" s="89"/>
-      <c r="L114" s="116" t="s">
+      <c r="B114" s="48"/>
+      <c r="C114" s="62"/>
+      <c r="D114" s="51"/>
+      <c r="E114" s="51"/>
+      <c r="F114" s="51"/>
+      <c r="G114" s="51"/>
+      <c r="H114" s="51"/>
+      <c r="I114" s="51"/>
+      <c r="J114" s="51"/>
+      <c r="K114" s="51"/>
+      <c r="L114" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="M114" s="74"/>
+      <c r="N114" s="74"/>
+      <c r="O114" s="74"/>
+      <c r="P114" s="74"/>
+      <c r="Q114" s="74"/>
+      <c r="R114" s="74"/>
+      <c r="S114" s="74"/>
+      <c r="T114" s="74"/>
+      <c r="U114" s="74"/>
+      <c r="V114" s="75"/>
+    </row>
+    <row r="115" spans="2:22" ht="16" customHeight="1">
+      <c r="B115" s="48"/>
+      <c r="C115" s="62"/>
+      <c r="D115" s="51"/>
+      <c r="E115" s="51"/>
+      <c r="F115" s="51"/>
+      <c r="G115" s="51"/>
+      <c r="H115" s="51"/>
+      <c r="I115" s="51"/>
+      <c r="J115" s="51"/>
+      <c r="K115" s="51"/>
+      <c r="L115" s="74"/>
+      <c r="M115" s="74"/>
+      <c r="N115" s="74"/>
+      <c r="O115" s="74"/>
+      <c r="P115" s="74"/>
+      <c r="Q115" s="74"/>
+      <c r="R115" s="74"/>
+      <c r="S115" s="74"/>
+      <c r="T115" s="74"/>
+      <c r="U115" s="74"/>
+      <c r="V115" s="75"/>
+    </row>
+    <row r="116" spans="2:22" ht="16" customHeight="1">
+      <c r="B116" s="48"/>
+      <c r="C116" s="62"/>
+      <c r="D116" s="51"/>
+      <c r="E116" s="51"/>
+      <c r="F116" s="51"/>
+      <c r="G116" s="51"/>
+      <c r="H116" s="51"/>
+      <c r="I116" s="51"/>
+      <c r="J116" s="51"/>
+      <c r="K116" s="51"/>
+      <c r="L116" s="74"/>
+      <c r="M116" s="74"/>
+      <c r="N116" s="74"/>
+      <c r="O116" s="74"/>
+      <c r="P116" s="74"/>
+      <c r="Q116" s="74"/>
+      <c r="R116" s="74"/>
+      <c r="S116" s="74"/>
+      <c r="T116" s="74"/>
+      <c r="U116" s="74"/>
+      <c r="V116" s="75"/>
+    </row>
+    <row r="117" spans="2:22" ht="16" customHeight="1">
+      <c r="B117" s="48"/>
+      <c r="C117" s="62"/>
+      <c r="D117" s="51"/>
+      <c r="E117" s="51"/>
+      <c r="F117" s="51"/>
+      <c r="G117" s="51"/>
+      <c r="H117" s="51"/>
+      <c r="I117" s="51"/>
+      <c r="J117" s="51"/>
+      <c r="K117" s="51"/>
+      <c r="L117" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="M114" s="116"/>
-      <c r="N114" s="116"/>
-      <c r="O114" s="116"/>
-      <c r="P114" s="116"/>
-      <c r="Q114" s="116"/>
-      <c r="R114" s="116"/>
-      <c r="S114" s="116"/>
-      <c r="T114" s="116"/>
-      <c r="U114" s="116"/>
-      <c r="V114" s="117"/>
-    </row>
-    <row r="115" spans="2:22" ht="16" customHeight="1">
-      <c r="B115" s="86"/>
-      <c r="C115" s="100"/>
-      <c r="D115" s="89"/>
-      <c r="E115" s="89"/>
-      <c r="F115" s="89"/>
-      <c r="G115" s="89"/>
-      <c r="H115" s="89"/>
-      <c r="I115" s="89"/>
-      <c r="J115" s="89"/>
-      <c r="K115" s="89"/>
-      <c r="L115" s="116"/>
-      <c r="M115" s="116"/>
-      <c r="N115" s="116"/>
-      <c r="O115" s="116"/>
-      <c r="P115" s="116"/>
-      <c r="Q115" s="116"/>
-      <c r="R115" s="116"/>
-      <c r="S115" s="116"/>
-      <c r="T115" s="116"/>
-      <c r="U115" s="116"/>
-      <c r="V115" s="117"/>
-    </row>
-    <row r="116" spans="2:22" ht="16" customHeight="1">
-      <c r="B116" s="86"/>
-      <c r="C116" s="100"/>
-      <c r="D116" s="89"/>
-      <c r="E116" s="89"/>
-      <c r="F116" s="89"/>
-      <c r="G116" s="89"/>
-      <c r="H116" s="89"/>
-      <c r="I116" s="89"/>
-      <c r="J116" s="89"/>
-      <c r="K116" s="89"/>
-      <c r="L116" s="116"/>
-      <c r="M116" s="116"/>
-      <c r="N116" s="116"/>
-      <c r="O116" s="116"/>
-      <c r="P116" s="116"/>
-      <c r="Q116" s="116"/>
-      <c r="R116" s="116"/>
-      <c r="S116" s="116"/>
-      <c r="T116" s="116"/>
-      <c r="U116" s="116"/>
-      <c r="V116" s="117"/>
-    </row>
-    <row r="117" spans="2:22" ht="16" customHeight="1">
-      <c r="B117" s="86"/>
-      <c r="C117" s="100"/>
-      <c r="D117" s="89"/>
-      <c r="E117" s="89"/>
-      <c r="F117" s="89"/>
-      <c r="G117" s="89"/>
-      <c r="H117" s="89"/>
-      <c r="I117" s="89"/>
-      <c r="J117" s="89"/>
-      <c r="K117" s="89"/>
-      <c r="L117" s="116" t="s">
+      <c r="M117" s="74"/>
+      <c r="N117" s="74"/>
+      <c r="O117" s="74"/>
+      <c r="P117" s="74"/>
+      <c r="Q117" s="74"/>
+      <c r="R117" s="74"/>
+      <c r="S117" s="74"/>
+      <c r="T117" s="74"/>
+      <c r="U117" s="74"/>
+      <c r="V117" s="75"/>
+    </row>
+    <row r="118" spans="2:22" ht="16" customHeight="1">
+      <c r="B118" s="48"/>
+      <c r="C118" s="62"/>
+      <c r="D118" s="51"/>
+      <c r="E118" s="51"/>
+      <c r="F118" s="51"/>
+      <c r="G118" s="51"/>
+      <c r="H118" s="51"/>
+      <c r="I118" s="51"/>
+      <c r="J118" s="51"/>
+      <c r="K118" s="51"/>
+      <c r="L118" s="74"/>
+      <c r="M118" s="74"/>
+      <c r="N118" s="74"/>
+      <c r="O118" s="74"/>
+      <c r="P118" s="74"/>
+      <c r="Q118" s="74"/>
+      <c r="R118" s="74"/>
+      <c r="S118" s="74"/>
+      <c r="T118" s="74"/>
+      <c r="U118" s="74"/>
+      <c r="V118" s="75"/>
+    </row>
+    <row r="119" spans="2:22" ht="16" customHeight="1">
+      <c r="B119" s="48"/>
+      <c r="C119" s="62"/>
+      <c r="D119" s="51"/>
+      <c r="E119" s="51"/>
+      <c r="F119" s="51"/>
+      <c r="G119" s="51"/>
+      <c r="H119" s="51"/>
+      <c r="I119" s="51"/>
+      <c r="J119" s="51"/>
+      <c r="K119" s="51"/>
+      <c r="L119" s="74"/>
+      <c r="M119" s="74"/>
+      <c r="N119" s="74"/>
+      <c r="O119" s="74"/>
+      <c r="P119" s="74"/>
+      <c r="Q119" s="74"/>
+      <c r="R119" s="74"/>
+      <c r="S119" s="74"/>
+      <c r="T119" s="74"/>
+      <c r="U119" s="74"/>
+      <c r="V119" s="75"/>
+    </row>
+    <row r="120" spans="2:22" ht="16" customHeight="1">
+      <c r="B120" s="48"/>
+      <c r="C120" s="62"/>
+      <c r="D120" s="51"/>
+      <c r="E120" s="51"/>
+      <c r="F120" s="51"/>
+      <c r="G120" s="51"/>
+      <c r="H120" s="51"/>
+      <c r="I120" s="51"/>
+      <c r="J120" s="51"/>
+      <c r="K120" s="51"/>
+      <c r="L120" s="74"/>
+      <c r="M120" s="74"/>
+      <c r="N120" s="74"/>
+      <c r="O120" s="74"/>
+      <c r="P120" s="74"/>
+      <c r="Q120" s="74"/>
+      <c r="R120" s="74"/>
+      <c r="S120" s="74"/>
+      <c r="T120" s="74"/>
+      <c r="U120" s="74"/>
+      <c r="V120" s="75"/>
+    </row>
+    <row r="121" spans="2:22" ht="16" customHeight="1">
+      <c r="B121" s="48"/>
+      <c r="C121" s="62"/>
+      <c r="D121" s="51"/>
+      <c r="E121" s="51"/>
+      <c r="F121" s="51"/>
+      <c r="G121" s="51"/>
+      <c r="H121" s="51"/>
+      <c r="I121" s="51"/>
+      <c r="J121" s="51"/>
+      <c r="K121" s="51"/>
+      <c r="L121" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="M117" s="116"/>
-      <c r="N117" s="116"/>
-      <c r="O117" s="116"/>
-      <c r="P117" s="116"/>
-      <c r="Q117" s="116"/>
-      <c r="R117" s="116"/>
-      <c r="S117" s="116"/>
-      <c r="T117" s="116"/>
-      <c r="U117" s="116"/>
-      <c r="V117" s="117"/>
-    </row>
-    <row r="118" spans="2:22" ht="16" customHeight="1">
-      <c r="B118" s="86"/>
-      <c r="C118" s="100"/>
-      <c r="D118" s="89"/>
-      <c r="E118" s="89"/>
-      <c r="F118" s="89"/>
-      <c r="G118" s="89"/>
-      <c r="H118" s="89"/>
-      <c r="I118" s="89"/>
-      <c r="J118" s="89"/>
-      <c r="K118" s="89"/>
-      <c r="L118" s="116"/>
-      <c r="M118" s="116"/>
-      <c r="N118" s="116"/>
-      <c r="O118" s="116"/>
-      <c r="P118" s="116"/>
-      <c r="Q118" s="116"/>
-      <c r="R118" s="116"/>
-      <c r="S118" s="116"/>
-      <c r="T118" s="116"/>
-      <c r="U118" s="116"/>
-      <c r="V118" s="117"/>
-    </row>
-    <row r="119" spans="2:22" ht="16" customHeight="1">
-      <c r="B119" s="86"/>
-      <c r="C119" s="100"/>
-      <c r="D119" s="89"/>
-      <c r="E119" s="89"/>
-      <c r="F119" s="89"/>
-      <c r="G119" s="89"/>
-      <c r="H119" s="89"/>
-      <c r="I119" s="89"/>
-      <c r="J119" s="89"/>
-      <c r="K119" s="89"/>
-      <c r="L119" s="116"/>
-      <c r="M119" s="116"/>
-      <c r="N119" s="116"/>
-      <c r="O119" s="116"/>
-      <c r="P119" s="116"/>
-      <c r="Q119" s="116"/>
-      <c r="R119" s="116"/>
-      <c r="S119" s="116"/>
-      <c r="T119" s="116"/>
-      <c r="U119" s="116"/>
-      <c r="V119" s="117"/>
-    </row>
-    <row r="120" spans="2:22" ht="16" customHeight="1">
-      <c r="B120" s="86"/>
-      <c r="C120" s="100"/>
-      <c r="D120" s="89"/>
-      <c r="E120" s="89"/>
-      <c r="F120" s="89"/>
-      <c r="G120" s="89"/>
-      <c r="H120" s="89"/>
-      <c r="I120" s="89"/>
-      <c r="J120" s="89"/>
-      <c r="K120" s="89"/>
-      <c r="L120" s="116"/>
-      <c r="M120" s="116"/>
-      <c r="N120" s="116"/>
-      <c r="O120" s="116"/>
-      <c r="P120" s="116"/>
-      <c r="Q120" s="116"/>
-      <c r="R120" s="116"/>
-      <c r="S120" s="116"/>
-      <c r="T120" s="116"/>
-      <c r="U120" s="116"/>
-      <c r="V120" s="117"/>
-    </row>
-    <row r="121" spans="2:22" ht="16" customHeight="1">
-      <c r="B121" s="86"/>
-      <c r="C121" s="100"/>
-      <c r="D121" s="89"/>
-      <c r="E121" s="89"/>
-      <c r="F121" s="89"/>
-      <c r="G121" s="89"/>
-      <c r="H121" s="89"/>
-      <c r="I121" s="89"/>
-      <c r="J121" s="89"/>
-      <c r="K121" s="89"/>
-      <c r="L121" s="116" t="s">
-        <v>79</v>
-      </c>
-      <c r="M121" s="116"/>
-      <c r="N121" s="116"/>
-      <c r="O121" s="116"/>
-      <c r="P121" s="116"/>
-      <c r="Q121" s="116"/>
-      <c r="R121" s="116"/>
-      <c r="S121" s="116"/>
-      <c r="T121" s="116"/>
-      <c r="U121" s="116"/>
-      <c r="V121" s="117"/>
+      <c r="M121" s="74"/>
+      <c r="N121" s="74"/>
+      <c r="O121" s="74"/>
+      <c r="P121" s="74"/>
+      <c r="Q121" s="74"/>
+      <c r="R121" s="74"/>
+      <c r="S121" s="74"/>
+      <c r="T121" s="74"/>
+      <c r="U121" s="74"/>
+      <c r="V121" s="75"/>
     </row>
     <row r="122" spans="2:22" ht="16" customHeight="1">
-      <c r="B122" s="86"/>
-      <c r="C122" s="100"/>
-      <c r="D122" s="89"/>
-      <c r="E122" s="89"/>
-      <c r="F122" s="89"/>
-      <c r="G122" s="89"/>
-      <c r="H122" s="89"/>
-      <c r="I122" s="89"/>
-      <c r="J122" s="89"/>
-      <c r="K122" s="89"/>
-      <c r="L122" s="116"/>
-      <c r="M122" s="116"/>
-      <c r="N122" s="116"/>
-      <c r="O122" s="116"/>
-      <c r="P122" s="116"/>
-      <c r="Q122" s="116"/>
-      <c r="R122" s="116"/>
-      <c r="S122" s="116"/>
-      <c r="T122" s="116"/>
-      <c r="U122" s="116"/>
-      <c r="V122" s="117"/>
+      <c r="B122" s="48"/>
+      <c r="C122" s="62"/>
+      <c r="D122" s="51"/>
+      <c r="E122" s="51"/>
+      <c r="F122" s="51"/>
+      <c r="G122" s="51"/>
+      <c r="H122" s="51"/>
+      <c r="I122" s="51"/>
+      <c r="J122" s="51"/>
+      <c r="K122" s="51"/>
+      <c r="L122" s="74"/>
+      <c r="M122" s="74"/>
+      <c r="N122" s="74"/>
+      <c r="O122" s="74"/>
+      <c r="P122" s="74"/>
+      <c r="Q122" s="74"/>
+      <c r="R122" s="74"/>
+      <c r="S122" s="74"/>
+      <c r="T122" s="74"/>
+      <c r="U122" s="74"/>
+      <c r="V122" s="75"/>
     </row>
     <row r="123" spans="2:22">
-      <c r="B123" s="86"/>
-      <c r="C123" s="100"/>
-      <c r="D123" s="89"/>
-      <c r="E123" s="89"/>
-      <c r="F123" s="89"/>
-      <c r="G123" s="89"/>
-      <c r="H123" s="89"/>
-      <c r="I123" s="89"/>
-      <c r="J123" s="89"/>
-      <c r="K123" s="89"/>
-      <c r="L123" s="116"/>
-      <c r="M123" s="116"/>
-      <c r="N123" s="116"/>
-      <c r="O123" s="116"/>
-      <c r="P123" s="116"/>
-      <c r="Q123" s="116"/>
-      <c r="R123" s="116"/>
-      <c r="S123" s="116"/>
-      <c r="T123" s="116"/>
-      <c r="U123" s="116"/>
-      <c r="V123" s="117"/>
+      <c r="B123" s="48"/>
+      <c r="C123" s="62"/>
+      <c r="D123" s="51"/>
+      <c r="E123" s="51"/>
+      <c r="F123" s="51"/>
+      <c r="G123" s="51"/>
+      <c r="H123" s="51"/>
+      <c r="I123" s="51"/>
+      <c r="J123" s="51"/>
+      <c r="K123" s="51"/>
+      <c r="L123" s="74"/>
+      <c r="M123" s="74"/>
+      <c r="N123" s="74"/>
+      <c r="O123" s="74"/>
+      <c r="P123" s="74"/>
+      <c r="Q123" s="74"/>
+      <c r="R123" s="74"/>
+      <c r="S123" s="74"/>
+      <c r="T123" s="74"/>
+      <c r="U123" s="74"/>
+      <c r="V123" s="75"/>
     </row>
     <row r="124" spans="2:22">
-      <c r="B124" s="86"/>
-      <c r="C124" s="100"/>
-      <c r="D124" s="89"/>
-      <c r="E124" s="89"/>
-      <c r="F124" s="89"/>
-      <c r="G124" s="89"/>
-      <c r="H124" s="89"/>
-      <c r="I124" s="89"/>
-      <c r="J124" s="89"/>
-      <c r="K124" s="89"/>
-      <c r="L124" s="116"/>
-      <c r="M124" s="116"/>
-      <c r="N124" s="116"/>
-      <c r="O124" s="116"/>
-      <c r="P124" s="116"/>
-      <c r="Q124" s="116"/>
-      <c r="R124" s="116"/>
-      <c r="S124" s="116"/>
-      <c r="T124" s="116"/>
-      <c r="U124" s="116"/>
-      <c r="V124" s="117"/>
+      <c r="B124" s="48"/>
+      <c r="C124" s="62"/>
+      <c r="D124" s="51"/>
+      <c r="E124" s="51"/>
+      <c r="F124" s="51"/>
+      <c r="G124" s="51"/>
+      <c r="H124" s="51"/>
+      <c r="I124" s="51"/>
+      <c r="J124" s="51"/>
+      <c r="K124" s="51"/>
+      <c r="L124" s="74"/>
+      <c r="M124" s="74"/>
+      <c r="N124" s="74"/>
+      <c r="O124" s="74"/>
+      <c r="P124" s="74"/>
+      <c r="Q124" s="74"/>
+      <c r="R124" s="74"/>
+      <c r="S124" s="74"/>
+      <c r="T124" s="74"/>
+      <c r="U124" s="74"/>
+      <c r="V124" s="75"/>
     </row>
     <row r="125" spans="2:22">
-      <c r="B125" s="86"/>
-      <c r="C125" s="100"/>
-      <c r="D125" s="89"/>
-      <c r="E125" s="89"/>
-      <c r="F125" s="89"/>
-      <c r="G125" s="89"/>
-      <c r="H125" s="89"/>
-      <c r="I125" s="89"/>
-      <c r="J125" s="89"/>
-      <c r="K125" s="89"/>
-      <c r="L125" s="89"/>
-      <c r="M125" s="89"/>
-      <c r="N125" s="89"/>
-      <c r="O125" s="89"/>
-      <c r="P125" s="89"/>
-      <c r="Q125" s="89"/>
-      <c r="R125" s="89"/>
-      <c r="S125" s="89"/>
-      <c r="T125" s="89"/>
-      <c r="U125" s="89"/>
-      <c r="V125" s="91"/>
+      <c r="B125" s="48"/>
+      <c r="C125" s="62"/>
+      <c r="D125" s="51"/>
+      <c r="E125" s="51"/>
+      <c r="F125" s="51"/>
+      <c r="G125" s="51"/>
+      <c r="H125" s="51"/>
+      <c r="I125" s="51"/>
+      <c r="J125" s="51"/>
+      <c r="K125" s="51"/>
+      <c r="L125" s="51"/>
+      <c r="M125" s="51"/>
+      <c r="N125" s="51"/>
+      <c r="O125" s="51"/>
+      <c r="P125" s="51"/>
+      <c r="Q125" s="51"/>
+      <c r="R125" s="51"/>
+      <c r="S125" s="51"/>
+      <c r="T125" s="51"/>
+      <c r="U125" s="51"/>
+      <c r="V125" s="53"/>
     </row>
     <row r="126" spans="2:22" ht="17" thickBot="1">
-      <c r="B126" s="92"/>
-      <c r="C126" s="112"/>
-      <c r="D126" s="94"/>
-      <c r="E126" s="94"/>
-      <c r="F126" s="94"/>
-      <c r="G126" s="94"/>
-      <c r="H126" s="94"/>
-      <c r="I126" s="94"/>
-      <c r="J126" s="94"/>
-      <c r="K126" s="94"/>
-      <c r="L126" s="94"/>
-      <c r="M126" s="94"/>
-      <c r="N126" s="94"/>
-      <c r="O126" s="94"/>
-      <c r="P126" s="94"/>
-      <c r="Q126" s="94"/>
-      <c r="R126" s="94"/>
-      <c r="S126" s="94"/>
-      <c r="T126" s="94"/>
-      <c r="U126" s="94"/>
-      <c r="V126" s="96"/>
+      <c r="B126" s="54"/>
+      <c r="C126" s="71"/>
+      <c r="D126" s="56"/>
+      <c r="E126" s="56"/>
+      <c r="F126" s="56"/>
+      <c r="G126" s="56"/>
+      <c r="H126" s="56"/>
+      <c r="I126" s="56"/>
+      <c r="J126" s="56"/>
+      <c r="K126" s="56"/>
+      <c r="L126" s="56"/>
+      <c r="M126" s="56"/>
+      <c r="N126" s="56"/>
+      <c r="O126" s="56"/>
+      <c r="P126" s="56"/>
+      <c r="Q126" s="56"/>
+      <c r="R126" s="56"/>
+      <c r="S126" s="56"/>
+      <c r="T126" s="56"/>
+      <c r="U126" s="56"/>
+      <c r="V126" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B5:V6"/>
+    <mergeCell ref="B14:V16"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="L97:V98"/>
+    <mergeCell ref="L99:V101"/>
+    <mergeCell ref="B55:V57"/>
+    <mergeCell ref="B94:V96"/>
+    <mergeCell ref="B46:V47"/>
+    <mergeCell ref="B85:V86"/>
     <mergeCell ref="L110:V112"/>
     <mergeCell ref="L114:V116"/>
     <mergeCell ref="L117:V120"/>
@@ -13395,23 +13391,6 @@
     <mergeCell ref="L107:V107"/>
     <mergeCell ref="L108:V108"/>
     <mergeCell ref="L109:V109"/>
-    <mergeCell ref="L97:V98"/>
-    <mergeCell ref="L99:V101"/>
-    <mergeCell ref="B55:V57"/>
-    <mergeCell ref="B94:V96"/>
-    <mergeCell ref="B46:V47"/>
-    <mergeCell ref="B85:V86"/>
-    <mergeCell ref="B5:V6"/>
-    <mergeCell ref="B14:V16"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -13571,7 +13550,7 @@
       <c r="A1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="65"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="7" t="s">
@@ -13594,7 +13573,7 @@
       <c r="N3"/>
       <c r="O3"/>
     </row>
-    <row r="4" spans="1:15" ht="23">
+    <row r="4" spans="1:15">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
@@ -14073,9 +14052,9 @@
     <col min="8" max="9" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="66" customFormat="1" ht="25">
-      <c r="A1" s="66" t="s">
-        <v>80</v>
+    <row r="1" spans="1:9" s="40" customFormat="1" ht="25">
+      <c r="A1" s="40" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -15978,8 +15957,6 @@
     </row>
     <row r="75" spans="1:9">
       <c r="F75" s="1"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16001,23 +15978,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="30"/>
+    <col min="6" max="6" width="10.83203125" style="27"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="66" customFormat="1" ht="25">
-      <c r="A1" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="68"/>
+    <row r="1" spans="1:6" s="40" customFormat="1" ht="25">
+      <c r="A1" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -16032,12 +16009,12 @@
       <c r="E2" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="27" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="35">
+      <c r="A3" s="32">
         <v>44927</v>
       </c>
       <c r="B3">
@@ -16052,13 +16029,13 @@
       <c r="E3">
         <v>2.66</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="27">
         <f t="shared" ref="F3:F14" si="0">E3/100</f>
         <v>2.6600000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="35">
+      <c r="A4" s="32">
         <v>44958</v>
       </c>
       <c r="B4">
@@ -16073,13 +16050,13 @@
       <c r="E4">
         <v>-1.1599999999999999</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="27">
         <f t="shared" si="0"/>
         <v>-1.1599999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="35">
+      <c r="A5" s="32">
         <v>44986</v>
       </c>
       <c r="B5">
@@ -16094,13 +16071,13 @@
       <c r="E5">
         <v>1.87</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="27">
         <f t="shared" si="0"/>
         <v>1.8700000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="35">
+      <c r="A6" s="32">
         <v>45017</v>
       </c>
       <c r="B6">
@@ -16115,13 +16092,13 @@
       <c r="E6">
         <v>-1.75</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="27">
         <f t="shared" si="0"/>
         <v>-1.7500000000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="35">
+      <c r="A7" s="32">
         <v>45047</v>
       </c>
       <c r="B7">
@@ -16136,13 +16113,13 @@
       <c r="E7">
         <v>2.06</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="27">
         <f t="shared" si="0"/>
         <v>2.06E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="35">
+      <c r="A8" s="32">
         <v>45078</v>
       </c>
       <c r="B8">
@@ -16157,13 +16134,13 @@
       <c r="E8">
         <v>-0.96</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="27">
         <f t="shared" si="0"/>
         <v>-9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="35">
+      <c r="A9" s="32">
         <v>45108</v>
       </c>
       <c r="B9">
@@ -16178,13 +16155,13 @@
       <c r="E9">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="27">
         <f t="shared" si="0"/>
         <v>2.0099999999999996E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="35">
+      <c r="A10" s="32">
         <v>45139</v>
       </c>
       <c r="B10">
@@ -16199,13 +16176,13 @@
       <c r="E10">
         <v>1.75</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="27">
         <f t="shared" si="0"/>
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="35">
+      <c r="A11" s="32">
         <v>45170</v>
       </c>
       <c r="B11">
@@ -16220,13 +16197,13 @@
       <c r="E11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="27">
         <f t="shared" si="0"/>
         <v>2.3E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="35">
+      <c r="A12" s="32">
         <v>45200</v>
       </c>
       <c r="B12">
@@ -16241,13 +16218,13 @@
       <c r="E12">
         <v>-0.6</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="27">
         <f t="shared" si="0"/>
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="35">
+      <c r="A13" s="32">
         <v>45231</v>
       </c>
       <c r="B13">
@@ -16262,13 +16239,13 @@
       <c r="E13">
         <v>-0.66</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="27">
         <f t="shared" si="0"/>
         <v>-6.6E-3</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="35">
+      <c r="A14" s="32">
         <v>45261</v>
       </c>
       <c r="B14">
@@ -16283,7 +16260,7 @@
       <c r="E14">
         <v>0.84</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="27">
         <f t="shared" si="0"/>
         <v>8.3999999999999995E-3</v>
       </c>
@@ -16307,20 +16284,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="66" customFormat="1" ht="25">
-      <c r="A1" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
+    <row r="1" spans="1:3" s="40" customFormat="1" ht="25">
+      <c r="A1" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="28" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -16331,7 +16308,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="31">
+      <c r="A3" s="28">
         <v>44927</v>
       </c>
       <c r="B3" s="4">
@@ -16342,7 +16319,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="31">
+      <c r="A4" s="28">
         <v>44927</v>
       </c>
       <c r="B4" s="4">
@@ -16353,7 +16330,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="31">
+      <c r="A5" s="28">
         <v>44958</v>
       </c>
       <c r="B5" s="4">
@@ -16364,7 +16341,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="31">
+      <c r="A6" s="28">
         <v>44958</v>
       </c>
       <c r="B6" s="4">
@@ -16375,7 +16352,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="31">
+      <c r="A7" s="28">
         <v>44986</v>
       </c>
       <c r="B7" s="4">
@@ -16386,7 +16363,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="31">
+      <c r="A8" s="28">
         <v>44986</v>
       </c>
       <c r="B8" s="4">
@@ -16397,7 +16374,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="31">
+      <c r="A9" s="28">
         <v>45017</v>
       </c>
       <c r="B9" s="4">
@@ -16408,7 +16385,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="31">
+      <c r="A10" s="28">
         <v>45017</v>
       </c>
       <c r="B10" s="4">
@@ -16419,7 +16396,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="31">
+      <c r="A11" s="28">
         <v>45047</v>
       </c>
       <c r="B11" s="4">
@@ -16430,7 +16407,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="31">
+      <c r="A12" s="28">
         <v>45047</v>
       </c>
       <c r="B12" s="4">
@@ -16441,7 +16418,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="31">
+      <c r="A13" s="28">
         <v>45078</v>
       </c>
       <c r="B13" s="4">
@@ -16452,7 +16429,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="31">
+      <c r="A14" s="28">
         <v>45078</v>
       </c>
       <c r="B14" s="4">
@@ -16463,7 +16440,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="31">
+      <c r="A15" s="28">
         <v>45108</v>
       </c>
       <c r="B15" s="4">
@@ -16474,7 +16451,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="31">
+      <c r="A16" s="28">
         <v>45108</v>
       </c>
       <c r="B16" s="4">
@@ -16485,7 +16462,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="31">
+      <c r="A17" s="28">
         <v>45139</v>
       </c>
       <c r="B17" s="4">
@@ -16496,7 +16473,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="31">
+      <c r="A18" s="28">
         <v>45139</v>
       </c>
       <c r="B18" s="4">
@@ -16507,7 +16484,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="31">
+      <c r="A19" s="28">
         <v>45170</v>
       </c>
       <c r="B19" s="4">
@@ -16518,7 +16495,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="31">
+      <c r="A20" s="28">
         <v>45170</v>
       </c>
       <c r="B20" s="4">
@@ -16529,7 +16506,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="31">
+      <c r="A21" s="28">
         <v>45200</v>
       </c>
       <c r="B21" s="4">
@@ -16540,7 +16517,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="31">
+      <c r="A22" s="28">
         <v>45200</v>
       </c>
       <c r="B22" s="4">
@@ -16551,7 +16528,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="31">
+      <c r="A23" s="28">
         <v>45231</v>
       </c>
       <c r="B23" s="4">
@@ -16562,7 +16539,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="31">
+      <c r="A24" s="28">
         <v>45231</v>
       </c>
       <c r="B24" s="4">
@@ -16573,7 +16550,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="31">
+      <c r="A25" s="28">
         <v>45261</v>
       </c>
       <c r="B25" s="4">
@@ -16584,7 +16561,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="31">
+      <c r="A26" s="28">
         <v>45261</v>
       </c>
       <c r="B26" s="4">
@@ -16613,19 +16590,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="66" customFormat="1" ht="25">
-      <c r="A1" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="70"/>
+    <row r="1" spans="1:3" s="40" customFormat="1" ht="25">
+      <c r="A1" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="32" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -16636,7 +16613,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="35">
+      <c r="A3" s="32">
         <v>44927</v>
       </c>
       <c r="B3" s="4">
@@ -16644,7 +16621,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="35">
+      <c r="A4" s="32">
         <v>44927</v>
       </c>
       <c r="B4" s="4">
@@ -16655,7 +16632,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="35">
+      <c r="A5" s="32">
         <v>44958</v>
       </c>
       <c r="B5" s="4">
@@ -16666,7 +16643,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="35">
+      <c r="A6" s="32">
         <v>44958</v>
       </c>
       <c r="B6" s="4">
@@ -16677,7 +16654,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="35">
+      <c r="A7" s="32">
         <v>44986</v>
       </c>
       <c r="B7" s="4">
@@ -16688,7 +16665,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="35">
+      <c r="A8" s="32">
         <v>44986</v>
       </c>
       <c r="B8" s="4">
@@ -16699,7 +16676,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="35">
+      <c r="A9" s="32">
         <v>45017</v>
       </c>
       <c r="B9" s="4">
@@ -16710,7 +16687,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="35">
+      <c r="A10" s="32">
         <v>45017</v>
       </c>
       <c r="B10" s="4">
@@ -16721,7 +16698,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="35">
+      <c r="A11" s="32">
         <v>45047</v>
       </c>
       <c r="B11" s="4">
@@ -16732,7 +16709,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="35">
+      <c r="A12" s="32">
         <v>45047</v>
       </c>
       <c r="B12" s="4">
@@ -16743,7 +16720,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="35">
+      <c r="A13" s="32">
         <v>45078</v>
       </c>
       <c r="B13" s="4">
@@ -16754,7 +16731,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="35">
+      <c r="A14" s="32">
         <v>45078</v>
       </c>
       <c r="B14" s="4">
@@ -16765,7 +16742,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="35">
+      <c r="A15" s="32">
         <v>45108</v>
       </c>
       <c r="B15" s="4">
@@ -16776,7 +16753,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="35">
+      <c r="A16" s="32">
         <v>45108</v>
       </c>
       <c r="B16" s="4">
@@ -16787,7 +16764,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="35">
+      <c r="A17" s="32">
         <v>45139</v>
       </c>
       <c r="B17" s="4">
@@ -16798,7 +16775,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="35">
+      <c r="A18" s="32">
         <v>45139</v>
       </c>
       <c r="B18" s="4">
@@ -16809,7 +16786,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="35">
+      <c r="A19" s="32">
         <v>45170</v>
       </c>
       <c r="B19" s="4">
@@ -16820,7 +16797,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="35">
+      <c r="A20" s="32">
         <v>45170</v>
       </c>
       <c r="B20" s="4">
@@ -16831,7 +16808,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="35">
+      <c r="A21" s="32">
         <v>45200</v>
       </c>
       <c r="B21" s="4">
@@ -16842,7 +16819,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="35">
+      <c r="A22" s="32">
         <v>45200</v>
       </c>
       <c r="B22" s="4">
@@ -16853,7 +16830,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="35">
+      <c r="A23" s="32">
         <v>45231</v>
       </c>
       <c r="B23" s="4">
@@ -16864,7 +16841,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="35">
+      <c r="A24" s="32">
         <v>45231</v>
       </c>
       <c r="B24" s="4">
@@ -16875,7 +16852,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="35">
+      <c r="A25" s="32">
         <v>45261</v>
       </c>
       <c r="B25" s="4">
@@ -16886,7 +16863,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="35">
+      <c r="A26" s="32">
         <v>45261</v>
       </c>
       <c r="B26" s="4">
@@ -16919,9 +16896,9 @@
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="66" customFormat="1" ht="25">
-      <c r="A1" s="66" t="s">
-        <v>84</v>
+    <row r="1" spans="1:2" s="40" customFormat="1" ht="25">
+      <c r="A1" s="40" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -16933,50 +16910,50 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="33">
         <v>4373.6499999999996</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="33">
         <v>2701.01</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="33">
         <v>1544.79</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="33">
         <v>1029.8599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="33">
         <v>0</v>
       </c>
     </row>
